--- a/assets/templates/Ежегодный план плановых проверок.xlsx
+++ b/assets/templates/Ежегодный план плановых проверок.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\fileCreator\assets\templates\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <workbookProtection workbookPassword="EC85" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585" tabRatio="287"/>
@@ -146,85 +151,85 @@
     <t>Министерство охраны природы Республики Саха (Якутия)</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t xml:space="preserve">Прокуратура Республики Саха (Якутия) </t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>[ГОД]</t>
-  </si>
-  <si>
-    <t>[сущность "Предприятие". Юридический адрес (место жительства ИП)]</t>
-  </si>
-  <si>
-    <t>[сущность "Предприятие".НАИМЕНОВАНИЕ ПРЕДПРИЯТИЯ]</t>
-  </si>
-  <si>
-    <t>[сущность "Предприятие".ОГРН/ОГРНИП]</t>
-  </si>
-  <si>
-    <t>[сущность "Предприятие".ИНН]</t>
-  </si>
-  <si>
-    <t>[сущность "предприятие". класс опасности]</t>
-  </si>
-  <si>
-    <t>[сущность "Проверка". Плановое начало проверки в формате "ММ" ]</t>
-  </si>
-  <si>
-    <t>[сущность "Проверка".Срок проведения плановой проверки (дн)]</t>
-  </si>
-  <si>
-    <t>[сущность "проверка".Срок проведения плановой проверки (раб.часов)]</t>
-  </si>
-  <si>
-    <t>[сущность "Проверка". форма проведения проверки - код (из справочника форм)]</t>
-  </si>
-  <si>
-    <t>[сущность "Проверка".Органы контроля, участвующие в проверке совместно]</t>
-  </si>
-  <si>
-    <t>[сущность "проверка".Номер по ЕРП]</t>
-  </si>
-  <si>
-    <t>[сущность "проверка".цель]</t>
-  </si>
-  <si>
-    <t>[сущность "Проверка".Лицо, утверждающее план проверок]</t>
-  </si>
-  <si>
-    <t>[сущность "Проверка".Реквизиты документа, утверждающего проверку]</t>
-  </si>
-  <si>
-    <t>[сущность "Проверка".Дата государственной регистрации]</t>
-  </si>
-  <si>
-    <t>[сущность "Проверка".Дата окончания последней проверки]</t>
-  </si>
-  <si>
-    <t>[сущность "Проверка".Дата начала осуществления хозяйственной деятельности]</t>
-  </si>
-  <si>
-    <t>[сущность "Проверка".Иные основания]</t>
-  </si>
-  <si>
     <t>Муниципальный район</t>
   </si>
   <si>
     <t>№ п.п.</t>
   </si>
   <si>
-    <t>[сущность "Предприятие" .Адрес фактического осуществления деятельности]</t>
+    <t>${year}</t>
+  </si>
+  <si>
+    <t>${verification.confirmPerson}</t>
+  </si>
+  <si>
+    <t>${verification.documentRequisites}</t>
+  </si>
+  <si>
+    <t>${table:companies.name}</t>
+  </si>
+  <si>
+    <t>${table:companies.juridicalAddress}</t>
+  </si>
+  <si>
+    <t>${table:companies.realAddress}</t>
+  </si>
+  <si>
+    <t>${table:companies.INN}</t>
+  </si>
+  <si>
+    <t>${table:companies.OGRNOrOGRNIP}</t>
+  </si>
+  <si>
+    <t>${table:companies.verification.goal}</t>
+  </si>
+  <si>
+    <t>${table:companies.verification.registerDate}</t>
+  </si>
+  <si>
+    <t>${table:companies.verification.lastVerificationDate}</t>
+  </si>
+  <si>
+    <t>${table:companies.verification.dateOfBeginActivity}</t>
+  </si>
+  <si>
+    <t>${table:companies.verification.anotherBasis}</t>
+  </si>
+  <si>
+    <t>${table:companies.verification.beginDate.formatMM}</t>
+  </si>
+  <si>
+    <t>${table:companies.verification.duration.days}</t>
+  </si>
+  <si>
+    <t>${table:companies.verification.duration.hours}</t>
+  </si>
+  <si>
+    <t>${table:companies.verification.code}</t>
+  </si>
+  <si>
+    <t>${table:companies.verification.controlAgency}</t>
+  </si>
+  <si>
+    <t>${table:companies.dangerClass}</t>
+  </si>
+  <si>
+    <t>${table:companies.ERP}</t>
+  </si>
+  <si>
+    <t>${table:companies.whiteSpace}</t>
+  </si>
+  <si>
+    <t>${table:companies.number}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -315,21 +320,15 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="30">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -419,19 +418,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -680,7 +666,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
@@ -791,16 +777,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -808,39 +784,41 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -848,13 +826,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -862,22 +840,18 @@
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -889,94 +863,98 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -986,21 +964,17 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
@@ -1013,6 +987,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1061,7 +1038,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1096,7 +1073,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1310,8 +1287,8 @@
   </sheetPr>
   <dimension ref="A1:S32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1333,14 +1310,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="43"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
       <c r="R1" s="4"/>
       <c r="S1" s="28"/>
     </row>
@@ -1351,14 +1328,14 @@
       <c r="B2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="50" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="52"/>
+      <c r="C2" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="50"/>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
@@ -1381,50 +1358,50 @@
       <c r="S3" s="3"/>
     </row>
     <row r="4" spans="1:19" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="56"/>
-      <c r="L4" s="56"/>
-      <c r="M4" s="56"/>
-      <c r="N4" s="56"/>
-      <c r="O4" s="56"/>
-      <c r="P4" s="56"/>
-      <c r="Q4" s="56"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="53"/>
+      <c r="N4" s="53"/>
+      <c r="O4" s="53"/>
+      <c r="P4" s="53"/>
+      <c r="Q4" s="53"/>
       <c r="R4" s="11" t="s">
         <v>32</v>
       </c>
       <c r="S4" s="12"/>
     </row>
     <row r="5" spans="1:19" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="55" t="s">
+      <c r="A5" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="55"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="55"/>
-      <c r="J5" s="55"/>
-      <c r="K5" s="55"/>
-      <c r="L5" s="55"/>
-      <c r="M5" s="55"/>
-      <c r="N5" s="55"/>
-      <c r="O5" s="55"/>
-      <c r="P5" s="55"/>
-      <c r="Q5" s="55"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="52"/>
+      <c r="L5" s="52"/>
+      <c r="M5" s="52"/>
+      <c r="N5" s="52"/>
+      <c r="O5" s="52"/>
+      <c r="P5" s="52"/>
+      <c r="Q5" s="52"/>
       <c r="R5" s="11" t="s">
         <v>33</v>
       </c>
@@ -1432,118 +1409,118 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C6" s="14"/>
-      <c r="D6" s="53" t="s">
+      <c r="D6" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="53"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="47"/>
     </row>
     <row r="7" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D7" s="75" t="s">
+      <c r="D7" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="75"/>
-      <c r="F7" s="75"/>
-      <c r="G7" s="75"/>
-      <c r="H7" s="75"/>
-      <c r="I7" s="75"/>
-      <c r="J7" s="75"/>
-      <c r="K7" s="75"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
+      <c r="K7" s="57"/>
       <c r="R7" s="15"/>
     </row>
     <row r="8" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="M8" s="74" t="s">
+      <c r="M8" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="N8" s="74"/>
-      <c r="O8" s="74"/>
-      <c r="P8" s="74"/>
-      <c r="Q8" s="74"/>
+      <c r="N8" s="56"/>
+      <c r="O8" s="56"/>
+      <c r="P8" s="56"/>
+      <c r="Q8" s="56"/>
       <c r="R8" s="17"/>
       <c r="S8" s="18"/>
     </row>
     <row r="9" spans="1:19" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="54"/>
-      <c r="B9" s="54"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="54"/>
-      <c r="J9" s="54"/>
-      <c r="K9" s="54"/>
-      <c r="L9" s="54"/>
-      <c r="M9" s="49" t="s">
-        <v>51</v>
-      </c>
-      <c r="N9" s="49"/>
-      <c r="O9" s="49"/>
-      <c r="P9" s="49"/>
-      <c r="Q9" s="49"/>
+      <c r="A9" s="51"/>
+      <c r="B9" s="51"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="51"/>
+      <c r="K9" s="51"/>
+      <c r="L9" s="51"/>
+      <c r="M9" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="N9" s="47"/>
+      <c r="O9" s="47"/>
+      <c r="P9" s="47"/>
+      <c r="Q9" s="47"/>
       <c r="R9" s="17"/>
     </row>
     <row r="10" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M10" s="47" t="s">
+      <c r="M10" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="N10" s="47"/>
-      <c r="O10" s="47"/>
-      <c r="P10" s="47"/>
-      <c r="Q10" s="47"/>
+      <c r="N10" s="45"/>
+      <c r="O10" s="45"/>
+      <c r="P10" s="45"/>
+      <c r="Q10" s="45"/>
       <c r="R10" s="19"/>
     </row>
     <row r="11" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M11" s="20"/>
-      <c r="N11" s="49" t="s">
-        <v>52</v>
-      </c>
-      <c r="O11" s="49"/>
-      <c r="P11" s="49"/>
-      <c r="Q11" s="49"/>
+      <c r="N11" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="O11" s="47"/>
+      <c r="P11" s="47"/>
+      <c r="Q11" s="47"/>
       <c r="R11" s="21"/>
     </row>
     <row r="12" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="48" t="s">
+      <c r="B12" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="48"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="48"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="48"/>
-      <c r="K12" s="48"/>
-      <c r="L12" s="48"/>
-      <c r="M12" s="48"/>
-      <c r="N12" s="48"/>
-      <c r="O12" s="48"/>
-      <c r="P12" s="48"/>
-      <c r="Q12" s="48"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="46"/>
+      <c r="K12" s="46"/>
+      <c r="L12" s="46"/>
+      <c r="M12" s="46"/>
+      <c r="N12" s="46"/>
+      <c r="O12" s="46"/>
+      <c r="P12" s="46"/>
+      <c r="Q12" s="46"/>
       <c r="R12" s="23"/>
       <c r="S12" s="22"/>
     </row>
     <row r="13" spans="1:19" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="58" t="s">
+      <c r="C13" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="58"/>
-      <c r="E13" s="58"/>
-      <c r="F13" s="58"/>
-      <c r="G13" s="58"/>
-      <c r="H13" s="58"/>
-      <c r="I13" s="58"/>
-      <c r="J13" s="58"/>
-      <c r="K13" s="58"/>
-      <c r="L13" s="30" t="s">
+      <c r="D13" s="55"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="55"/>
+      <c r="I13" s="55"/>
+      <c r="J13" s="55"/>
+      <c r="K13" s="55"/>
+      <c r="L13" s="32" t="s">
         <v>38</v>
       </c>
       <c r="Q13" s="24"/>
@@ -1551,384 +1528,384 @@
       <c r="S13" s="24"/>
     </row>
     <row r="14" spans="1:19" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="71" t="s">
-        <v>58</v>
-      </c>
-      <c r="B14" s="71" t="s">
+      <c r="A14" s="67" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="62" t="s">
+      <c r="C14" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="63"/>
-      <c r="E14" s="64"/>
-      <c r="F14" s="79" t="s">
+      <c r="D14" s="59"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="G14" s="79" t="s">
+      <c r="G14" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="H14" s="76" t="s">
+      <c r="H14" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="I14" s="62" t="s">
+      <c r="I14" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="J14" s="63"/>
-      <c r="K14" s="63"/>
-      <c r="L14" s="64"/>
-      <c r="M14" s="85" t="s">
+      <c r="J14" s="59"/>
+      <c r="K14" s="59"/>
+      <c r="L14" s="60"/>
+      <c r="M14" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="N14" s="62" t="s">
+      <c r="N14" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="O14" s="64"/>
-      <c r="P14" s="57" t="s">
+      <c r="O14" s="60"/>
+      <c r="P14" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="Q14" s="57" t="s">
+      <c r="Q14" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="R14" s="76" t="s">
+      <c r="R14" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="S14" s="86" t="s">
+      <c r="S14" s="83" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:19" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="72"/>
-      <c r="B15" s="72"/>
-      <c r="C15" s="65"/>
-      <c r="D15" s="66"/>
-      <c r="E15" s="67"/>
-      <c r="F15" s="80"/>
-      <c r="G15" s="80"/>
-      <c r="H15" s="77"/>
-      <c r="I15" s="65"/>
-      <c r="J15" s="66"/>
-      <c r="K15" s="66"/>
-      <c r="L15" s="67"/>
-      <c r="M15" s="60"/>
-      <c r="N15" s="65"/>
-      <c r="O15" s="67"/>
-      <c r="P15" s="45"/>
-      <c r="Q15" s="45"/>
-      <c r="R15" s="77"/>
-      <c r="S15" s="87"/>
+      <c r="A15" s="68"/>
+      <c r="B15" s="68"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="74"/>
+      <c r="G15" s="74"/>
+      <c r="H15" s="71"/>
+      <c r="I15" s="61"/>
+      <c r="J15" s="62"/>
+      <c r="K15" s="62"/>
+      <c r="L15" s="63"/>
+      <c r="M15" s="77"/>
+      <c r="N15" s="61"/>
+      <c r="O15" s="63"/>
+      <c r="P15" s="43"/>
+      <c r="Q15" s="43"/>
+      <c r="R15" s="71"/>
+      <c r="S15" s="84"/>
     </row>
     <row r="16" spans="1:19" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="72"/>
-      <c r="B16" s="72"/>
-      <c r="C16" s="65"/>
-      <c r="D16" s="66"/>
-      <c r="E16" s="67"/>
-      <c r="F16" s="80"/>
-      <c r="G16" s="80"/>
-      <c r="H16" s="77"/>
-      <c r="I16" s="65"/>
-      <c r="J16" s="66"/>
-      <c r="K16" s="66"/>
-      <c r="L16" s="67"/>
-      <c r="M16" s="60"/>
-      <c r="N16" s="65"/>
-      <c r="O16" s="67"/>
-      <c r="P16" s="45"/>
-      <c r="Q16" s="45"/>
-      <c r="R16" s="77"/>
-      <c r="S16" s="87"/>
+      <c r="A16" s="68"/>
+      <c r="B16" s="68"/>
+      <c r="C16" s="61"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="74"/>
+      <c r="G16" s="74"/>
+      <c r="H16" s="71"/>
+      <c r="I16" s="61"/>
+      <c r="J16" s="62"/>
+      <c r="K16" s="62"/>
+      <c r="L16" s="63"/>
+      <c r="M16" s="77"/>
+      <c r="N16" s="61"/>
+      <c r="O16" s="63"/>
+      <c r="P16" s="43"/>
+      <c r="Q16" s="43"/>
+      <c r="R16" s="71"/>
+      <c r="S16" s="84"/>
     </row>
     <row r="17" spans="1:19" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="72"/>
-      <c r="B17" s="72"/>
-      <c r="C17" s="65"/>
-      <c r="D17" s="66"/>
-      <c r="E17" s="67"/>
-      <c r="F17" s="80"/>
-      <c r="G17" s="80"/>
-      <c r="H17" s="77"/>
-      <c r="I17" s="65"/>
-      <c r="J17" s="66"/>
-      <c r="K17" s="66"/>
-      <c r="L17" s="67"/>
-      <c r="M17" s="60"/>
-      <c r="N17" s="65"/>
-      <c r="O17" s="67"/>
-      <c r="P17" s="45"/>
-      <c r="Q17" s="45"/>
-      <c r="R17" s="77"/>
-      <c r="S17" s="87"/>
+      <c r="A17" s="68"/>
+      <c r="B17" s="68"/>
+      <c r="C17" s="61"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="74"/>
+      <c r="G17" s="74"/>
+      <c r="H17" s="71"/>
+      <c r="I17" s="61"/>
+      <c r="J17" s="62"/>
+      <c r="K17" s="62"/>
+      <c r="L17" s="63"/>
+      <c r="M17" s="77"/>
+      <c r="N17" s="61"/>
+      <c r="O17" s="63"/>
+      <c r="P17" s="43"/>
+      <c r="Q17" s="43"/>
+      <c r="R17" s="71"/>
+      <c r="S17" s="84"/>
     </row>
     <row r="18" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="72"/>
-      <c r="B18" s="72"/>
-      <c r="C18" s="68"/>
-      <c r="D18" s="69"/>
-      <c r="E18" s="70"/>
-      <c r="F18" s="80"/>
-      <c r="G18" s="80"/>
-      <c r="H18" s="77"/>
-      <c r="I18" s="68"/>
-      <c r="J18" s="69"/>
-      <c r="K18" s="69"/>
-      <c r="L18" s="70"/>
-      <c r="M18" s="60"/>
-      <c r="N18" s="68"/>
-      <c r="O18" s="70"/>
-      <c r="P18" s="45"/>
-      <c r="Q18" s="45"/>
-      <c r="R18" s="77"/>
-      <c r="S18" s="87"/>
+      <c r="A18" s="68"/>
+      <c r="B18" s="68"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="66"/>
+      <c r="F18" s="74"/>
+      <c r="G18" s="74"/>
+      <c r="H18" s="71"/>
+      <c r="I18" s="64"/>
+      <c r="J18" s="65"/>
+      <c r="K18" s="65"/>
+      <c r="L18" s="66"/>
+      <c r="M18" s="77"/>
+      <c r="N18" s="64"/>
+      <c r="O18" s="66"/>
+      <c r="P18" s="43"/>
+      <c r="Q18" s="43"/>
+      <c r="R18" s="71"/>
+      <c r="S18" s="84"/>
     </row>
     <row r="19" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="72"/>
-      <c r="B19" s="72"/>
-      <c r="C19" s="82" t="s">
+      <c r="A19" s="68"/>
+      <c r="B19" s="68"/>
+      <c r="C19" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="44" t="s">
+      <c r="D19" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="E19" s="44" t="s">
+      <c r="E19" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="F19" s="80"/>
-      <c r="G19" s="80"/>
-      <c r="H19" s="77"/>
-      <c r="I19" s="59" t="s">
+      <c r="F19" s="74"/>
+      <c r="G19" s="74"/>
+      <c r="H19" s="71"/>
+      <c r="I19" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="J19" s="59" t="s">
+      <c r="J19" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="K19" s="59" t="s">
+      <c r="K19" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="L19" s="44" t="s">
+      <c r="L19" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="M19" s="60"/>
-      <c r="N19" s="44" t="s">
+      <c r="M19" s="77"/>
+      <c r="N19" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="O19" s="44" t="s">
+      <c r="O19" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="P19" s="45"/>
-      <c r="Q19" s="45"/>
-      <c r="R19" s="89"/>
-      <c r="S19" s="87"/>
+      <c r="P19" s="43"/>
+      <c r="Q19" s="43"/>
+      <c r="R19" s="86"/>
+      <c r="S19" s="84"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A20" s="72"/>
-      <c r="B20" s="72"/>
-      <c r="C20" s="83"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="80"/>
-      <c r="G20" s="80"/>
-      <c r="H20" s="77"/>
-      <c r="I20" s="60"/>
-      <c r="J20" s="60"/>
-      <c r="K20" s="60"/>
-      <c r="L20" s="45"/>
-      <c r="M20" s="60"/>
-      <c r="N20" s="45"/>
-      <c r="O20" s="45"/>
-      <c r="P20" s="45"/>
-      <c r="Q20" s="45"/>
-      <c r="R20" s="89"/>
-      <c r="S20" s="87"/>
+      <c r="A20" s="68"/>
+      <c r="B20" s="68"/>
+      <c r="C20" s="80"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="74"/>
+      <c r="G20" s="74"/>
+      <c r="H20" s="71"/>
+      <c r="I20" s="77"/>
+      <c r="J20" s="77"/>
+      <c r="K20" s="77"/>
+      <c r="L20" s="43"/>
+      <c r="M20" s="77"/>
+      <c r="N20" s="43"/>
+      <c r="O20" s="43"/>
+      <c r="P20" s="43"/>
+      <c r="Q20" s="43"/>
+      <c r="R20" s="86"/>
+      <c r="S20" s="84"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A21" s="72"/>
-      <c r="B21" s="72"/>
-      <c r="C21" s="83"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="80"/>
-      <c r="G21" s="80"/>
-      <c r="H21" s="77"/>
-      <c r="I21" s="60"/>
-      <c r="J21" s="60"/>
-      <c r="K21" s="60"/>
-      <c r="L21" s="45"/>
-      <c r="M21" s="60"/>
-      <c r="N21" s="45"/>
-      <c r="O21" s="45"/>
-      <c r="P21" s="45"/>
-      <c r="Q21" s="45"/>
-      <c r="R21" s="89"/>
-      <c r="S21" s="87"/>
+      <c r="A21" s="68"/>
+      <c r="B21" s="68"/>
+      <c r="C21" s="80"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="74"/>
+      <c r="G21" s="74"/>
+      <c r="H21" s="71"/>
+      <c r="I21" s="77"/>
+      <c r="J21" s="77"/>
+      <c r="K21" s="77"/>
+      <c r="L21" s="43"/>
+      <c r="M21" s="77"/>
+      <c r="N21" s="43"/>
+      <c r="O21" s="43"/>
+      <c r="P21" s="43"/>
+      <c r="Q21" s="43"/>
+      <c r="R21" s="86"/>
+      <c r="S21" s="84"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A22" s="72"/>
-      <c r="B22" s="72"/>
-      <c r="C22" s="83"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="80"/>
-      <c r="G22" s="80"/>
-      <c r="H22" s="77"/>
-      <c r="I22" s="60"/>
-      <c r="J22" s="60"/>
-      <c r="K22" s="60"/>
-      <c r="L22" s="45"/>
-      <c r="M22" s="60"/>
-      <c r="N22" s="45"/>
-      <c r="O22" s="45"/>
-      <c r="P22" s="45"/>
-      <c r="Q22" s="45"/>
-      <c r="R22" s="89"/>
-      <c r="S22" s="87"/>
+      <c r="A22" s="68"/>
+      <c r="B22" s="68"/>
+      <c r="C22" s="80"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="74"/>
+      <c r="G22" s="74"/>
+      <c r="H22" s="71"/>
+      <c r="I22" s="77"/>
+      <c r="J22" s="77"/>
+      <c r="K22" s="77"/>
+      <c r="L22" s="43"/>
+      <c r="M22" s="77"/>
+      <c r="N22" s="43"/>
+      <c r="O22" s="43"/>
+      <c r="P22" s="43"/>
+      <c r="Q22" s="43"/>
+      <c r="R22" s="86"/>
+      <c r="S22" s="84"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A23" s="72"/>
-      <c r="B23" s="72"/>
-      <c r="C23" s="83"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="45"/>
-      <c r="F23" s="80"/>
-      <c r="G23" s="80"/>
-      <c r="H23" s="77"/>
-      <c r="I23" s="60"/>
-      <c r="J23" s="60"/>
-      <c r="K23" s="60"/>
-      <c r="L23" s="45"/>
-      <c r="M23" s="60"/>
-      <c r="N23" s="45"/>
-      <c r="O23" s="45"/>
-      <c r="P23" s="45"/>
-      <c r="Q23" s="45"/>
-      <c r="R23" s="89"/>
-      <c r="S23" s="87"/>
+      <c r="A23" s="68"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="80"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="74"/>
+      <c r="G23" s="74"/>
+      <c r="H23" s="71"/>
+      <c r="I23" s="77"/>
+      <c r="J23" s="77"/>
+      <c r="K23" s="77"/>
+      <c r="L23" s="43"/>
+      <c r="M23" s="77"/>
+      <c r="N23" s="43"/>
+      <c r="O23" s="43"/>
+      <c r="P23" s="43"/>
+      <c r="Q23" s="43"/>
+      <c r="R23" s="86"/>
+      <c r="S23" s="84"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A24" s="72"/>
-      <c r="B24" s="72"/>
-      <c r="C24" s="83"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="45"/>
-      <c r="F24" s="80"/>
-      <c r="G24" s="80"/>
-      <c r="H24" s="77"/>
-      <c r="I24" s="60"/>
-      <c r="J24" s="60"/>
-      <c r="K24" s="60"/>
-      <c r="L24" s="45"/>
-      <c r="M24" s="60"/>
-      <c r="N24" s="45"/>
-      <c r="O24" s="45"/>
-      <c r="P24" s="45"/>
-      <c r="Q24" s="45"/>
-      <c r="R24" s="89"/>
-      <c r="S24" s="87"/>
+      <c r="A24" s="68"/>
+      <c r="B24" s="68"/>
+      <c r="C24" s="80"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="74"/>
+      <c r="G24" s="74"/>
+      <c r="H24" s="71"/>
+      <c r="I24" s="77"/>
+      <c r="J24" s="77"/>
+      <c r="K24" s="77"/>
+      <c r="L24" s="43"/>
+      <c r="M24" s="77"/>
+      <c r="N24" s="43"/>
+      <c r="O24" s="43"/>
+      <c r="P24" s="43"/>
+      <c r="Q24" s="43"/>
+      <c r="R24" s="86"/>
+      <c r="S24" s="84"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A25" s="72"/>
-      <c r="B25" s="72"/>
-      <c r="C25" s="83"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="45"/>
-      <c r="F25" s="80"/>
-      <c r="G25" s="80"/>
-      <c r="H25" s="77"/>
-      <c r="I25" s="60"/>
-      <c r="J25" s="60"/>
-      <c r="K25" s="60"/>
-      <c r="L25" s="45"/>
-      <c r="M25" s="60"/>
-      <c r="N25" s="45"/>
-      <c r="O25" s="45"/>
-      <c r="P25" s="45"/>
-      <c r="Q25" s="45"/>
-      <c r="R25" s="89"/>
-      <c r="S25" s="87"/>
+      <c r="A25" s="68"/>
+      <c r="B25" s="68"/>
+      <c r="C25" s="80"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="74"/>
+      <c r="G25" s="74"/>
+      <c r="H25" s="71"/>
+      <c r="I25" s="77"/>
+      <c r="J25" s="77"/>
+      <c r="K25" s="77"/>
+      <c r="L25" s="43"/>
+      <c r="M25" s="77"/>
+      <c r="N25" s="43"/>
+      <c r="O25" s="43"/>
+      <c r="P25" s="43"/>
+      <c r="Q25" s="43"/>
+      <c r="R25" s="86"/>
+      <c r="S25" s="84"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A26" s="72"/>
-      <c r="B26" s="72"/>
-      <c r="C26" s="83"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="80"/>
-      <c r="G26" s="80"/>
-      <c r="H26" s="77"/>
-      <c r="I26" s="60"/>
-      <c r="J26" s="60"/>
-      <c r="K26" s="60"/>
-      <c r="L26" s="45"/>
-      <c r="M26" s="60"/>
-      <c r="N26" s="45"/>
-      <c r="O26" s="45"/>
-      <c r="P26" s="45"/>
-      <c r="Q26" s="45"/>
-      <c r="R26" s="89"/>
-      <c r="S26" s="87"/>
+      <c r="A26" s="68"/>
+      <c r="B26" s="68"/>
+      <c r="C26" s="80"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="74"/>
+      <c r="G26" s="74"/>
+      <c r="H26" s="71"/>
+      <c r="I26" s="77"/>
+      <c r="J26" s="77"/>
+      <c r="K26" s="77"/>
+      <c r="L26" s="43"/>
+      <c r="M26" s="77"/>
+      <c r="N26" s="43"/>
+      <c r="O26" s="43"/>
+      <c r="P26" s="43"/>
+      <c r="Q26" s="43"/>
+      <c r="R26" s="86"/>
+      <c r="S26" s="84"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A27" s="72"/>
-      <c r="B27" s="72"/>
-      <c r="C27" s="83"/>
-      <c r="D27" s="45"/>
-      <c r="E27" s="45"/>
-      <c r="F27" s="80"/>
-      <c r="G27" s="80"/>
-      <c r="H27" s="77"/>
-      <c r="I27" s="60"/>
-      <c r="J27" s="60"/>
-      <c r="K27" s="60"/>
-      <c r="L27" s="45"/>
-      <c r="M27" s="60"/>
-      <c r="N27" s="45"/>
-      <c r="O27" s="45"/>
-      <c r="P27" s="45"/>
-      <c r="Q27" s="45"/>
-      <c r="R27" s="89"/>
-      <c r="S27" s="87"/>
+      <c r="A27" s="68"/>
+      <c r="B27" s="68"/>
+      <c r="C27" s="80"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="74"/>
+      <c r="G27" s="74"/>
+      <c r="H27" s="71"/>
+      <c r="I27" s="77"/>
+      <c r="J27" s="77"/>
+      <c r="K27" s="77"/>
+      <c r="L27" s="43"/>
+      <c r="M27" s="77"/>
+      <c r="N27" s="43"/>
+      <c r="O27" s="43"/>
+      <c r="P27" s="43"/>
+      <c r="Q27" s="43"/>
+      <c r="R27" s="86"/>
+      <c r="S27" s="84"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A28" s="72"/>
-      <c r="B28" s="72"/>
-      <c r="C28" s="83"/>
-      <c r="D28" s="45"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="80"/>
-      <c r="G28" s="80"/>
-      <c r="H28" s="77"/>
-      <c r="I28" s="60"/>
-      <c r="J28" s="60"/>
-      <c r="K28" s="60"/>
-      <c r="L28" s="45"/>
-      <c r="M28" s="60"/>
-      <c r="N28" s="45"/>
-      <c r="O28" s="45"/>
-      <c r="P28" s="45"/>
-      <c r="Q28" s="45"/>
-      <c r="R28" s="89"/>
-      <c r="S28" s="87"/>
+      <c r="A28" s="68"/>
+      <c r="B28" s="68"/>
+      <c r="C28" s="80"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="74"/>
+      <c r="G28" s="74"/>
+      <c r="H28" s="71"/>
+      <c r="I28" s="77"/>
+      <c r="J28" s="77"/>
+      <c r="K28" s="77"/>
+      <c r="L28" s="43"/>
+      <c r="M28" s="77"/>
+      <c r="N28" s="43"/>
+      <c r="O28" s="43"/>
+      <c r="P28" s="43"/>
+      <c r="Q28" s="43"/>
+      <c r="R28" s="86"/>
+      <c r="S28" s="84"/>
     </row>
     <row r="29" spans="1:19" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="73"/>
-      <c r="B29" s="73"/>
-      <c r="C29" s="84"/>
-      <c r="D29" s="46"/>
-      <c r="E29" s="46"/>
-      <c r="F29" s="81"/>
-      <c r="G29" s="81"/>
-      <c r="H29" s="78"/>
-      <c r="I29" s="61"/>
-      <c r="J29" s="61"/>
-      <c r="K29" s="61"/>
-      <c r="L29" s="46"/>
-      <c r="M29" s="61"/>
-      <c r="N29" s="46"/>
-      <c r="O29" s="46"/>
-      <c r="P29" s="46"/>
-      <c r="Q29" s="46"/>
-      <c r="R29" s="90"/>
-      <c r="S29" s="88"/>
+      <c r="A29" s="69"/>
+      <c r="B29" s="69"/>
+      <c r="C29" s="81"/>
+      <c r="D29" s="44"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="75"/>
+      <c r="G29" s="75"/>
+      <c r="H29" s="72"/>
+      <c r="I29" s="78"/>
+      <c r="J29" s="78"/>
+      <c r="K29" s="78"/>
+      <c r="L29" s="44"/>
+      <c r="M29" s="78"/>
+      <c r="N29" s="44"/>
+      <c r="O29" s="44"/>
+      <c r="P29" s="44"/>
+      <c r="Q29" s="44"/>
+      <c r="R29" s="87"/>
+      <c r="S29" s="85"/>
     </row>
     <row r="30" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B30" s="26">
@@ -1986,86 +1963,86 @@
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="91" t="s">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A31" s="88" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" s="88"/>
+      <c r="C31" s="88"/>
+      <c r="D31" s="88"/>
+      <c r="E31" s="88"/>
+      <c r="F31" s="88"/>
+      <c r="G31" s="88"/>
+      <c r="H31" s="88"/>
+      <c r="I31" s="88"/>
+      <c r="J31" s="88"/>
+      <c r="K31" s="88"/>
+      <c r="L31" s="88"/>
+      <c r="M31" s="88"/>
+      <c r="N31" s="88"/>
+      <c r="O31" s="88"/>
+      <c r="P31" s="88"/>
+      <c r="Q31" s="88"/>
+      <c r="R31" s="88"/>
+      <c r="S31" s="89"/>
+    </row>
+    <row r="32" spans="1:19" s="30" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="B32" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="D32" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="E32" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="F32" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="G32" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="H32" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="I32" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="J32" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="K32" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="L32" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="M32" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="N32" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="O32" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="P32" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q32" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="R32" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="S32" s="31" t="s">
         <v>57</v>
-      </c>
-      <c r="B31" s="91"/>
-      <c r="C31" s="91"/>
-      <c r="D31" s="91"/>
-      <c r="E31" s="91"/>
-      <c r="F31" s="91"/>
-      <c r="G31" s="91"/>
-      <c r="H31" s="91"/>
-      <c r="I31" s="91"/>
-      <c r="J31" s="91"/>
-      <c r="K31" s="91"/>
-      <c r="L31" s="91"/>
-      <c r="M31" s="91"/>
-      <c r="N31" s="91"/>
-      <c r="O31" s="91"/>
-      <c r="P31" s="91"/>
-      <c r="Q31" s="91"/>
-      <c r="R31" s="91"/>
-      <c r="S31" s="92"/>
-    </row>
-    <row r="32" spans="1:19" s="33" customFormat="1" ht="102" x14ac:dyDescent="0.25">
-      <c r="A32" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="C32" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="D32" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="E32" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="F32" s="37" t="s">
-        <v>41</v>
-      </c>
-      <c r="G32" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="H32" s="38" t="s">
-        <v>50</v>
-      </c>
-      <c r="I32" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="J32" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="K32" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="L32" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="M32" s="40" t="s">
-        <v>44</v>
-      </c>
-      <c r="N32" s="41" t="s">
-        <v>45</v>
-      </c>
-      <c r="O32" s="41" t="s">
-        <v>46</v>
-      </c>
-      <c r="P32" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q32" s="36" t="s">
-        <v>48</v>
-      </c>
-      <c r="R32" s="40" t="s">
-        <v>43</v>
-      </c>
-      <c r="S32" s="42" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -2115,19 +2092,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Документ" ma:contentTypeID="0x0101003220086BDFF08D4697153991C5991007" ma:contentTypeVersion="6" ma:contentTypeDescription="Создание документа." ma:contentTypeScope="" ma:versionID="92861b40dc77cc7dc4f405e799d307eb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ba51a3dc-3600-43b4-9e90-084518075544" xmlns:ns3="27a80a21-4aed-40f1-b39d-00aef76d25f1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="697eb68cc161217d921f9e9932bb7be9" ns2:_="" ns3:_="">
     <xsd:import namespace="ba51a3dc-3600-43b4-9e90-084518075544"/>
@@ -2280,7 +2244,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxKeywordTaxHTField xmlns="27a80a21-4aed-40f1-b39d-00aef76d25f1">
@@ -2294,23 +2258,20 @@
 </p:properties>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91B1181E-E70F-4B46-8612-7A451D6C81B9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA9B6A42-54F8-447D-8BC0-D2106B2F0520}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{23265495-F50B-4D0A-B1F7-E2F1BF735843}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2329,7 +2290,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3DBC70DD-A51E-41BB-B099-09B34029A4FC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="27a80a21-4aed-40f1-b39d-00aef76d25f1"/>
@@ -2344,4 +2305,20 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91B1181E-E70F-4B46-8612-7A451D6C81B9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA9B6A42-54F8-447D-8BC0-D2106B2F0520}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/assets/templates/Ежегодный план плановых проверок.xlsx
+++ b/assets/templates/Ежегодный план плановых проверок.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\fileCreator\assets\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\practice\fileCreator\assets\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <workbookProtection workbookPassword="EC85" lockStructure="1"/>
@@ -229,7 +229,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -820,18 +820,129 @@
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
@@ -863,119 +974,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1287,8 +1287,8 @@
   </sheetPr>
   <dimension ref="A1:S32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+    <sheetView tabSelected="1" topLeftCell="D16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O45" sqref="M38:O45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1313,11 +1313,11 @@
       <c r="A1" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="41"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
       <c r="R1" s="4"/>
       <c r="S1" s="28"/>
     </row>
@@ -1328,14 +1328,14 @@
       <c r="B2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="48" t="s">
+      <c r="C2" s="83" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="50"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="85"/>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
@@ -1358,50 +1358,50 @@
       <c r="S3" s="3"/>
     </row>
     <row r="4" spans="1:19" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="53" t="s">
+      <c r="A4" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="53"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
-      <c r="M4" s="53"/>
-      <c r="N4" s="53"/>
-      <c r="O4" s="53"/>
-      <c r="P4" s="53"/>
-      <c r="Q4" s="53"/>
+      <c r="B4" s="88"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="88"/>
+      <c r="L4" s="88"/>
+      <c r="M4" s="88"/>
+      <c r="N4" s="88"/>
+      <c r="O4" s="88"/>
+      <c r="P4" s="88"/>
+      <c r="Q4" s="88"/>
       <c r="R4" s="11" t="s">
         <v>32</v>
       </c>
       <c r="S4" s="12"/>
     </row>
     <row r="5" spans="1:19" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="52" t="s">
+      <c r="A5" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="52"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="52"/>
-      <c r="I5" s="52"/>
-      <c r="J5" s="52"/>
-      <c r="K5" s="52"/>
-      <c r="L5" s="52"/>
-      <c r="M5" s="52"/>
-      <c r="N5" s="52"/>
-      <c r="O5" s="52"/>
-      <c r="P5" s="52"/>
-      <c r="Q5" s="52"/>
+      <c r="B5" s="87"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="87"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="87"/>
+      <c r="H5" s="87"/>
+      <c r="I5" s="87"/>
+      <c r="J5" s="87"/>
+      <c r="K5" s="87"/>
+      <c r="L5" s="87"/>
+      <c r="M5" s="87"/>
+      <c r="N5" s="87"/>
+      <c r="O5" s="87"/>
+      <c r="P5" s="87"/>
+      <c r="Q5" s="87"/>
       <c r="R5" s="11" t="s">
         <v>33</v>
       </c>
@@ -1409,117 +1409,117 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C6" s="14"/>
-      <c r="D6" s="47" t="s">
+      <c r="D6" s="82" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="47"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="82"/>
+      <c r="G6" s="82"/>
+      <c r="H6" s="82"/>
+      <c r="I6" s="82"/>
+      <c r="J6" s="82"/>
+      <c r="K6" s="82"/>
     </row>
     <row r="7" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D7" s="57" t="s">
+      <c r="D7" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57"/>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
-      <c r="K7" s="57"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="66"/>
+      <c r="K7" s="66"/>
       <c r="R7" s="15"/>
     </row>
     <row r="8" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="M8" s="56" t="s">
+      <c r="M8" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="N8" s="56"/>
-      <c r="O8" s="56"/>
-      <c r="P8" s="56"/>
-      <c r="Q8" s="56"/>
+      <c r="N8" s="65"/>
+      <c r="O8" s="65"/>
+      <c r="P8" s="65"/>
+      <c r="Q8" s="65"/>
       <c r="R8" s="17"/>
       <c r="S8" s="18"/>
     </row>
     <row r="9" spans="1:19" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="51"/>
-      <c r="B9" s="51"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="51"/>
-      <c r="J9" s="51"/>
-      <c r="K9" s="51"/>
-      <c r="L9" s="51"/>
-      <c r="M9" s="47" t="s">
+      <c r="A9" s="86"/>
+      <c r="B9" s="86"/>
+      <c r="C9" s="86"/>
+      <c r="D9" s="86"/>
+      <c r="E9" s="86"/>
+      <c r="F9" s="86"/>
+      <c r="G9" s="86"/>
+      <c r="H9" s="86"/>
+      <c r="I9" s="86"/>
+      <c r="J9" s="86"/>
+      <c r="K9" s="86"/>
+      <c r="L9" s="86"/>
+      <c r="M9" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="N9" s="47"/>
-      <c r="O9" s="47"/>
-      <c r="P9" s="47"/>
-      <c r="Q9" s="47"/>
+      <c r="N9" s="82"/>
+      <c r="O9" s="82"/>
+      <c r="P9" s="82"/>
+      <c r="Q9" s="82"/>
       <c r="R9" s="17"/>
     </row>
     <row r="10" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M10" s="45" t="s">
+      <c r="M10" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="N10" s="45"/>
-      <c r="O10" s="45"/>
-      <c r="P10" s="45"/>
-      <c r="Q10" s="45"/>
+      <c r="N10" s="80"/>
+      <c r="O10" s="80"/>
+      <c r="P10" s="80"/>
+      <c r="Q10" s="80"/>
       <c r="R10" s="19"/>
     </row>
     <row r="11" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M11" s="20"/>
-      <c r="N11" s="47" t="s">
+      <c r="N11" s="82" t="s">
         <v>40</v>
       </c>
-      <c r="O11" s="47"/>
-      <c r="P11" s="47"/>
-      <c r="Q11" s="47"/>
+      <c r="O11" s="82"/>
+      <c r="P11" s="82"/>
+      <c r="Q11" s="82"/>
       <c r="R11" s="21"/>
     </row>
     <row r="12" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="46" t="s">
+      <c r="B12" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="46"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="46"/>
-      <c r="I12" s="46"/>
-      <c r="J12" s="46"/>
-      <c r="K12" s="46"/>
-      <c r="L12" s="46"/>
-      <c r="M12" s="46"/>
-      <c r="N12" s="46"/>
-      <c r="O12" s="46"/>
-      <c r="P12" s="46"/>
-      <c r="Q12" s="46"/>
+      <c r="C12" s="81"/>
+      <c r="D12" s="81"/>
+      <c r="E12" s="81"/>
+      <c r="F12" s="81"/>
+      <c r="G12" s="81"/>
+      <c r="H12" s="81"/>
+      <c r="I12" s="81"/>
+      <c r="J12" s="81"/>
+      <c r="K12" s="81"/>
+      <c r="L12" s="81"/>
+      <c r="M12" s="81"/>
+      <c r="N12" s="81"/>
+      <c r="O12" s="81"/>
+      <c r="P12" s="81"/>
+      <c r="Q12" s="81"/>
       <c r="R12" s="23"/>
       <c r="S12" s="22"/>
     </row>
     <row r="13" spans="1:19" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="55" t="s">
+      <c r="C13" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="55"/>
-      <c r="E13" s="55"/>
-      <c r="F13" s="55"/>
-      <c r="G13" s="55"/>
-      <c r="H13" s="55"/>
-      <c r="I13" s="55"/>
-      <c r="J13" s="55"/>
-      <c r="K13" s="55"/>
+      <c r="D13" s="89"/>
+      <c r="E13" s="89"/>
+      <c r="F13" s="89"/>
+      <c r="G13" s="89"/>
+      <c r="H13" s="89"/>
+      <c r="I13" s="89"/>
+      <c r="J13" s="89"/>
+      <c r="K13" s="89"/>
       <c r="L13" s="32" t="s">
         <v>38</v>
       </c>
@@ -1528,384 +1528,384 @@
       <c r="S13" s="24"/>
     </row>
     <row r="14" spans="1:19" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="67" t="s">
+      <c r="A14" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="67" t="s">
+      <c r="B14" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="58" t="s">
+      <c r="C14" s="48" t="s">
         <v>2</v>
       </c>
       <c r="D14" s="59"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="73" t="s">
+      <c r="E14" s="49"/>
+      <c r="F14" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="G14" s="73" t="s">
+      <c r="G14" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="H14" s="70" t="s">
+      <c r="H14" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="I14" s="58" t="s">
+      <c r="I14" s="48" t="s">
         <v>4</v>
       </c>
       <c r="J14" s="59"/>
       <c r="K14" s="59"/>
-      <c r="L14" s="60"/>
-      <c r="M14" s="82" t="s">
+      <c r="L14" s="49"/>
+      <c r="M14" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="N14" s="58" t="s">
+      <c r="N14" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="O14" s="60"/>
-      <c r="P14" s="54" t="s">
+      <c r="O14" s="49"/>
+      <c r="P14" s="77" t="s">
         <v>28</v>
       </c>
-      <c r="Q14" s="54" t="s">
+      <c r="Q14" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="R14" s="70" t="s">
+      <c r="R14" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="S14" s="83" t="s">
+      <c r="S14" s="41" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:19" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="68"/>
-      <c r="B15" s="68"/>
-      <c r="C15" s="61"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="74"/>
-      <c r="G15" s="74"/>
-      <c r="H15" s="71"/>
-      <c r="I15" s="61"/>
-      <c r="J15" s="62"/>
-      <c r="K15" s="62"/>
-      <c r="L15" s="63"/>
-      <c r="M15" s="77"/>
-      <c r="N15" s="61"/>
-      <c r="O15" s="63"/>
-      <c r="P15" s="43"/>
-      <c r="Q15" s="43"/>
-      <c r="R15" s="71"/>
-      <c r="S15" s="84"/>
+      <c r="A15" s="63"/>
+      <c r="B15" s="63"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="72"/>
+      <c r="G15" s="72"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="60"/>
+      <c r="K15" s="60"/>
+      <c r="L15" s="51"/>
+      <c r="M15" s="57"/>
+      <c r="N15" s="50"/>
+      <c r="O15" s="51"/>
+      <c r="P15" s="68"/>
+      <c r="Q15" s="68"/>
+      <c r="R15" s="45"/>
+      <c r="S15" s="42"/>
     </row>
     <row r="16" spans="1:19" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="68"/>
-      <c r="B16" s="68"/>
-      <c r="C16" s="61"/>
-      <c r="D16" s="62"/>
-      <c r="E16" s="63"/>
-      <c r="F16" s="74"/>
-      <c r="G16" s="74"/>
-      <c r="H16" s="71"/>
-      <c r="I16" s="61"/>
-      <c r="J16" s="62"/>
-      <c r="K16" s="62"/>
-      <c r="L16" s="63"/>
-      <c r="M16" s="77"/>
-      <c r="N16" s="61"/>
-      <c r="O16" s="63"/>
-      <c r="P16" s="43"/>
-      <c r="Q16" s="43"/>
-      <c r="R16" s="71"/>
-      <c r="S16" s="84"/>
+      <c r="A16" s="63"/>
+      <c r="B16" s="63"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="72"/>
+      <c r="G16" s="72"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="60"/>
+      <c r="L16" s="51"/>
+      <c r="M16" s="57"/>
+      <c r="N16" s="50"/>
+      <c r="O16" s="51"/>
+      <c r="P16" s="68"/>
+      <c r="Q16" s="68"/>
+      <c r="R16" s="45"/>
+      <c r="S16" s="42"/>
     </row>
     <row r="17" spans="1:19" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="68"/>
-      <c r="B17" s="68"/>
-      <c r="C17" s="61"/>
-      <c r="D17" s="62"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="74"/>
-      <c r="G17" s="74"/>
-      <c r="H17" s="71"/>
-      <c r="I17" s="61"/>
-      <c r="J17" s="62"/>
-      <c r="K17" s="62"/>
-      <c r="L17" s="63"/>
-      <c r="M17" s="77"/>
-      <c r="N17" s="61"/>
-      <c r="O17" s="63"/>
-      <c r="P17" s="43"/>
-      <c r="Q17" s="43"/>
-      <c r="R17" s="71"/>
-      <c r="S17" s="84"/>
+      <c r="A17" s="63"/>
+      <c r="B17" s="63"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="72"/>
+      <c r="G17" s="72"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="60"/>
+      <c r="K17" s="60"/>
+      <c r="L17" s="51"/>
+      <c r="M17" s="57"/>
+      <c r="N17" s="50"/>
+      <c r="O17" s="51"/>
+      <c r="P17" s="68"/>
+      <c r="Q17" s="68"/>
+      <c r="R17" s="45"/>
+      <c r="S17" s="42"/>
     </row>
     <row r="18" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="68"/>
-      <c r="B18" s="68"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="65"/>
-      <c r="E18" s="66"/>
-      <c r="F18" s="74"/>
-      <c r="G18" s="74"/>
-      <c r="H18" s="71"/>
-      <c r="I18" s="64"/>
-      <c r="J18" s="65"/>
-      <c r="K18" s="65"/>
-      <c r="L18" s="66"/>
-      <c r="M18" s="77"/>
-      <c r="N18" s="64"/>
-      <c r="O18" s="66"/>
-      <c r="P18" s="43"/>
-      <c r="Q18" s="43"/>
-      <c r="R18" s="71"/>
-      <c r="S18" s="84"/>
+      <c r="A18" s="63"/>
+      <c r="B18" s="63"/>
+      <c r="C18" s="52"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="72"/>
+      <c r="G18" s="72"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="52"/>
+      <c r="J18" s="61"/>
+      <c r="K18" s="61"/>
+      <c r="L18" s="53"/>
+      <c r="M18" s="57"/>
+      <c r="N18" s="52"/>
+      <c r="O18" s="53"/>
+      <c r="P18" s="68"/>
+      <c r="Q18" s="68"/>
+      <c r="R18" s="45"/>
+      <c r="S18" s="42"/>
     </row>
     <row r="19" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="68"/>
-      <c r="B19" s="68"/>
-      <c r="C19" s="79" t="s">
+      <c r="A19" s="63"/>
+      <c r="B19" s="63"/>
+      <c r="C19" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="42" t="s">
+      <c r="D19" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="E19" s="42" t="s">
+      <c r="E19" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="F19" s="74"/>
-      <c r="G19" s="74"/>
-      <c r="H19" s="71"/>
-      <c r="I19" s="76" t="s">
+      <c r="F19" s="72"/>
+      <c r="G19" s="72"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="J19" s="76" t="s">
+      <c r="J19" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="K19" s="76" t="s">
+      <c r="K19" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="L19" s="42" t="s">
+      <c r="L19" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="M19" s="77"/>
-      <c r="N19" s="42" t="s">
+      <c r="M19" s="57"/>
+      <c r="N19" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="O19" s="42" t="s">
+      <c r="O19" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="P19" s="43"/>
-      <c r="Q19" s="43"/>
-      <c r="R19" s="86"/>
-      <c r="S19" s="84"/>
+      <c r="P19" s="68"/>
+      <c r="Q19" s="68"/>
+      <c r="R19" s="46"/>
+      <c r="S19" s="42"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A20" s="68"/>
-      <c r="B20" s="68"/>
-      <c r="C20" s="80"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="74"/>
-      <c r="G20" s="74"/>
-      <c r="H20" s="71"/>
-      <c r="I20" s="77"/>
-      <c r="J20" s="77"/>
-      <c r="K20" s="77"/>
-      <c r="L20" s="43"/>
-      <c r="M20" s="77"/>
-      <c r="N20" s="43"/>
-      <c r="O20" s="43"/>
-      <c r="P20" s="43"/>
-      <c r="Q20" s="43"/>
-      <c r="R20" s="86"/>
-      <c r="S20" s="84"/>
+      <c r="A20" s="63"/>
+      <c r="B20" s="63"/>
+      <c r="C20" s="75"/>
+      <c r="D20" s="68"/>
+      <c r="E20" s="68"/>
+      <c r="F20" s="72"/>
+      <c r="G20" s="72"/>
+      <c r="H20" s="45"/>
+      <c r="I20" s="57"/>
+      <c r="J20" s="57"/>
+      <c r="K20" s="57"/>
+      <c r="L20" s="68"/>
+      <c r="M20" s="57"/>
+      <c r="N20" s="68"/>
+      <c r="O20" s="68"/>
+      <c r="P20" s="68"/>
+      <c r="Q20" s="68"/>
+      <c r="R20" s="46"/>
+      <c r="S20" s="42"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A21" s="68"/>
-      <c r="B21" s="68"/>
-      <c r="C21" s="80"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="74"/>
-      <c r="G21" s="74"/>
-      <c r="H21" s="71"/>
-      <c r="I21" s="77"/>
-      <c r="J21" s="77"/>
-      <c r="K21" s="77"/>
-      <c r="L21" s="43"/>
-      <c r="M21" s="77"/>
-      <c r="N21" s="43"/>
-      <c r="O21" s="43"/>
-      <c r="P21" s="43"/>
-      <c r="Q21" s="43"/>
-      <c r="R21" s="86"/>
-      <c r="S21" s="84"/>
+      <c r="A21" s="63"/>
+      <c r="B21" s="63"/>
+      <c r="C21" s="75"/>
+      <c r="D21" s="68"/>
+      <c r="E21" s="68"/>
+      <c r="F21" s="72"/>
+      <c r="G21" s="72"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="57"/>
+      <c r="J21" s="57"/>
+      <c r="K21" s="57"/>
+      <c r="L21" s="68"/>
+      <c r="M21" s="57"/>
+      <c r="N21" s="68"/>
+      <c r="O21" s="68"/>
+      <c r="P21" s="68"/>
+      <c r="Q21" s="68"/>
+      <c r="R21" s="46"/>
+      <c r="S21" s="42"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A22" s="68"/>
-      <c r="B22" s="68"/>
-      <c r="C22" s="80"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="74"/>
-      <c r="G22" s="74"/>
-      <c r="H22" s="71"/>
-      <c r="I22" s="77"/>
-      <c r="J22" s="77"/>
-      <c r="K22" s="77"/>
-      <c r="L22" s="43"/>
-      <c r="M22" s="77"/>
-      <c r="N22" s="43"/>
-      <c r="O22" s="43"/>
-      <c r="P22" s="43"/>
-      <c r="Q22" s="43"/>
-      <c r="R22" s="86"/>
-      <c r="S22" s="84"/>
+      <c r="A22" s="63"/>
+      <c r="B22" s="63"/>
+      <c r="C22" s="75"/>
+      <c r="D22" s="68"/>
+      <c r="E22" s="68"/>
+      <c r="F22" s="72"/>
+      <c r="G22" s="72"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="57"/>
+      <c r="J22" s="57"/>
+      <c r="K22" s="57"/>
+      <c r="L22" s="68"/>
+      <c r="M22" s="57"/>
+      <c r="N22" s="68"/>
+      <c r="O22" s="68"/>
+      <c r="P22" s="68"/>
+      <c r="Q22" s="68"/>
+      <c r="R22" s="46"/>
+      <c r="S22" s="42"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A23" s="68"/>
-      <c r="B23" s="68"/>
-      <c r="C23" s="80"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="43"/>
-      <c r="F23" s="74"/>
-      <c r="G23" s="74"/>
-      <c r="H23" s="71"/>
-      <c r="I23" s="77"/>
-      <c r="J23" s="77"/>
-      <c r="K23" s="77"/>
-      <c r="L23" s="43"/>
-      <c r="M23" s="77"/>
-      <c r="N23" s="43"/>
-      <c r="O23" s="43"/>
-      <c r="P23" s="43"/>
-      <c r="Q23" s="43"/>
-      <c r="R23" s="86"/>
-      <c r="S23" s="84"/>
+      <c r="A23" s="63"/>
+      <c r="B23" s="63"/>
+      <c r="C23" s="75"/>
+      <c r="D23" s="68"/>
+      <c r="E23" s="68"/>
+      <c r="F23" s="72"/>
+      <c r="G23" s="72"/>
+      <c r="H23" s="45"/>
+      <c r="I23" s="57"/>
+      <c r="J23" s="57"/>
+      <c r="K23" s="57"/>
+      <c r="L23" s="68"/>
+      <c r="M23" s="57"/>
+      <c r="N23" s="68"/>
+      <c r="O23" s="68"/>
+      <c r="P23" s="68"/>
+      <c r="Q23" s="68"/>
+      <c r="R23" s="46"/>
+      <c r="S23" s="42"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A24" s="68"/>
-      <c r="B24" s="68"/>
-      <c r="C24" s="80"/>
-      <c r="D24" s="43"/>
-      <c r="E24" s="43"/>
-      <c r="F24" s="74"/>
-      <c r="G24" s="74"/>
-      <c r="H24" s="71"/>
-      <c r="I24" s="77"/>
-      <c r="J24" s="77"/>
-      <c r="K24" s="77"/>
-      <c r="L24" s="43"/>
-      <c r="M24" s="77"/>
-      <c r="N24" s="43"/>
-      <c r="O24" s="43"/>
-      <c r="P24" s="43"/>
-      <c r="Q24" s="43"/>
-      <c r="R24" s="86"/>
-      <c r="S24" s="84"/>
+      <c r="A24" s="63"/>
+      <c r="B24" s="63"/>
+      <c r="C24" s="75"/>
+      <c r="D24" s="68"/>
+      <c r="E24" s="68"/>
+      <c r="F24" s="72"/>
+      <c r="G24" s="72"/>
+      <c r="H24" s="45"/>
+      <c r="I24" s="57"/>
+      <c r="J24" s="57"/>
+      <c r="K24" s="57"/>
+      <c r="L24" s="68"/>
+      <c r="M24" s="57"/>
+      <c r="N24" s="68"/>
+      <c r="O24" s="68"/>
+      <c r="P24" s="68"/>
+      <c r="Q24" s="68"/>
+      <c r="R24" s="46"/>
+      <c r="S24" s="42"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A25" s="68"/>
-      <c r="B25" s="68"/>
-      <c r="C25" s="80"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="43"/>
-      <c r="F25" s="74"/>
-      <c r="G25" s="74"/>
-      <c r="H25" s="71"/>
-      <c r="I25" s="77"/>
-      <c r="J25" s="77"/>
-      <c r="K25" s="77"/>
-      <c r="L25" s="43"/>
-      <c r="M25" s="77"/>
-      <c r="N25" s="43"/>
-      <c r="O25" s="43"/>
-      <c r="P25" s="43"/>
-      <c r="Q25" s="43"/>
-      <c r="R25" s="86"/>
-      <c r="S25" s="84"/>
+      <c r="A25" s="63"/>
+      <c r="B25" s="63"/>
+      <c r="C25" s="75"/>
+      <c r="D25" s="68"/>
+      <c r="E25" s="68"/>
+      <c r="F25" s="72"/>
+      <c r="G25" s="72"/>
+      <c r="H25" s="45"/>
+      <c r="I25" s="57"/>
+      <c r="J25" s="57"/>
+      <c r="K25" s="57"/>
+      <c r="L25" s="68"/>
+      <c r="M25" s="57"/>
+      <c r="N25" s="68"/>
+      <c r="O25" s="68"/>
+      <c r="P25" s="68"/>
+      <c r="Q25" s="68"/>
+      <c r="R25" s="46"/>
+      <c r="S25" s="42"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A26" s="68"/>
-      <c r="B26" s="68"/>
-      <c r="C26" s="80"/>
-      <c r="D26" s="43"/>
-      <c r="E26" s="43"/>
-      <c r="F26" s="74"/>
-      <c r="G26" s="74"/>
-      <c r="H26" s="71"/>
-      <c r="I26" s="77"/>
-      <c r="J26" s="77"/>
-      <c r="K26" s="77"/>
-      <c r="L26" s="43"/>
-      <c r="M26" s="77"/>
-      <c r="N26" s="43"/>
-      <c r="O26" s="43"/>
-      <c r="P26" s="43"/>
-      <c r="Q26" s="43"/>
-      <c r="R26" s="86"/>
-      <c r="S26" s="84"/>
+      <c r="A26" s="63"/>
+      <c r="B26" s="63"/>
+      <c r="C26" s="75"/>
+      <c r="D26" s="68"/>
+      <c r="E26" s="68"/>
+      <c r="F26" s="72"/>
+      <c r="G26" s="72"/>
+      <c r="H26" s="45"/>
+      <c r="I26" s="57"/>
+      <c r="J26" s="57"/>
+      <c r="K26" s="57"/>
+      <c r="L26" s="68"/>
+      <c r="M26" s="57"/>
+      <c r="N26" s="68"/>
+      <c r="O26" s="68"/>
+      <c r="P26" s="68"/>
+      <c r="Q26" s="68"/>
+      <c r="R26" s="46"/>
+      <c r="S26" s="42"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A27" s="68"/>
-      <c r="B27" s="68"/>
-      <c r="C27" s="80"/>
-      <c r="D27" s="43"/>
-      <c r="E27" s="43"/>
-      <c r="F27" s="74"/>
-      <c r="G27" s="74"/>
-      <c r="H27" s="71"/>
-      <c r="I27" s="77"/>
-      <c r="J27" s="77"/>
-      <c r="K27" s="77"/>
-      <c r="L27" s="43"/>
-      <c r="M27" s="77"/>
-      <c r="N27" s="43"/>
-      <c r="O27" s="43"/>
-      <c r="P27" s="43"/>
-      <c r="Q27" s="43"/>
-      <c r="R27" s="86"/>
-      <c r="S27" s="84"/>
+      <c r="A27" s="63"/>
+      <c r="B27" s="63"/>
+      <c r="C27" s="75"/>
+      <c r="D27" s="68"/>
+      <c r="E27" s="68"/>
+      <c r="F27" s="72"/>
+      <c r="G27" s="72"/>
+      <c r="H27" s="45"/>
+      <c r="I27" s="57"/>
+      <c r="J27" s="57"/>
+      <c r="K27" s="57"/>
+      <c r="L27" s="68"/>
+      <c r="M27" s="57"/>
+      <c r="N27" s="68"/>
+      <c r="O27" s="68"/>
+      <c r="P27" s="68"/>
+      <c r="Q27" s="68"/>
+      <c r="R27" s="46"/>
+      <c r="S27" s="42"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A28" s="68"/>
-      <c r="B28" s="68"/>
-      <c r="C28" s="80"/>
-      <c r="D28" s="43"/>
-      <c r="E28" s="43"/>
-      <c r="F28" s="74"/>
-      <c r="G28" s="74"/>
-      <c r="H28" s="71"/>
-      <c r="I28" s="77"/>
-      <c r="J28" s="77"/>
-      <c r="K28" s="77"/>
-      <c r="L28" s="43"/>
-      <c r="M28" s="77"/>
-      <c r="N28" s="43"/>
-      <c r="O28" s="43"/>
-      <c r="P28" s="43"/>
-      <c r="Q28" s="43"/>
-      <c r="R28" s="86"/>
-      <c r="S28" s="84"/>
+      <c r="A28" s="63"/>
+      <c r="B28" s="63"/>
+      <c r="C28" s="75"/>
+      <c r="D28" s="68"/>
+      <c r="E28" s="68"/>
+      <c r="F28" s="72"/>
+      <c r="G28" s="72"/>
+      <c r="H28" s="45"/>
+      <c r="I28" s="57"/>
+      <c r="J28" s="57"/>
+      <c r="K28" s="57"/>
+      <c r="L28" s="68"/>
+      <c r="M28" s="57"/>
+      <c r="N28" s="68"/>
+      <c r="O28" s="68"/>
+      <c r="P28" s="68"/>
+      <c r="Q28" s="68"/>
+      <c r="R28" s="46"/>
+      <c r="S28" s="42"/>
     </row>
     <row r="29" spans="1:19" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="69"/>
-      <c r="B29" s="69"/>
-      <c r="C29" s="81"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="75"/>
-      <c r="G29" s="75"/>
-      <c r="H29" s="72"/>
-      <c r="I29" s="78"/>
-      <c r="J29" s="78"/>
-      <c r="K29" s="78"/>
-      <c r="L29" s="44"/>
-      <c r="M29" s="78"/>
-      <c r="N29" s="44"/>
-      <c r="O29" s="44"/>
-      <c r="P29" s="44"/>
-      <c r="Q29" s="44"/>
-      <c r="R29" s="87"/>
-      <c r="S29" s="85"/>
+      <c r="A29" s="64"/>
+      <c r="B29" s="64"/>
+      <c r="C29" s="76"/>
+      <c r="D29" s="69"/>
+      <c r="E29" s="69"/>
+      <c r="F29" s="73"/>
+      <c r="G29" s="73"/>
+      <c r="H29" s="70"/>
+      <c r="I29" s="58"/>
+      <c r="J29" s="58"/>
+      <c r="K29" s="58"/>
+      <c r="L29" s="69"/>
+      <c r="M29" s="58"/>
+      <c r="N29" s="69"/>
+      <c r="O29" s="69"/>
+      <c r="P29" s="69"/>
+      <c r="Q29" s="69"/>
+      <c r="R29" s="47"/>
+      <c r="S29" s="43"/>
     </row>
     <row r="30" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B30" s="26">
@@ -1964,27 +1964,27 @@
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A31" s="88" t="s">
+      <c r="A31" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="B31" s="88"/>
-      <c r="C31" s="88"/>
-      <c r="D31" s="88"/>
-      <c r="E31" s="88"/>
-      <c r="F31" s="88"/>
-      <c r="G31" s="88"/>
-      <c r="H31" s="88"/>
-      <c r="I31" s="88"/>
-      <c r="J31" s="88"/>
-      <c r="K31" s="88"/>
-      <c r="L31" s="88"/>
-      <c r="M31" s="88"/>
-      <c r="N31" s="88"/>
-      <c r="O31" s="88"/>
-      <c r="P31" s="88"/>
-      <c r="Q31" s="88"/>
-      <c r="R31" s="88"/>
-      <c r="S31" s="89"/>
+      <c r="B31" s="54"/>
+      <c r="C31" s="54"/>
+      <c r="D31" s="54"/>
+      <c r="E31" s="54"/>
+      <c r="F31" s="54"/>
+      <c r="G31" s="54"/>
+      <c r="H31" s="54"/>
+      <c r="I31" s="54"/>
+      <c r="J31" s="54"/>
+      <c r="K31" s="54"/>
+      <c r="L31" s="54"/>
+      <c r="M31" s="54"/>
+      <c r="N31" s="54"/>
+      <c r="O31" s="54"/>
+      <c r="P31" s="54"/>
+      <c r="Q31" s="54"/>
+      <c r="R31" s="54"/>
+      <c r="S31" s="55"/>
     </row>
     <row r="32" spans="1:19" s="30" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A32" s="29" t="s">
@@ -2049,26 +2049,6 @@
   <autoFilter ref="A30:S32"/>
   <dataConsolidate/>
   <mergeCells count="36">
-    <mergeCell ref="S14:S29"/>
-    <mergeCell ref="R14:R29"/>
-    <mergeCell ref="N14:O18"/>
-    <mergeCell ref="A31:S31"/>
-    <mergeCell ref="J19:J29"/>
-    <mergeCell ref="I14:L18"/>
-    <mergeCell ref="A14:A29"/>
-    <mergeCell ref="M8:Q8"/>
-    <mergeCell ref="D7:K7"/>
-    <mergeCell ref="E19:E29"/>
-    <mergeCell ref="C14:E18"/>
-    <mergeCell ref="B14:B29"/>
-    <mergeCell ref="H14:H29"/>
-    <mergeCell ref="G14:G29"/>
-    <mergeCell ref="F14:F29"/>
-    <mergeCell ref="I19:I29"/>
-    <mergeCell ref="C19:C29"/>
-    <mergeCell ref="K19:K29"/>
-    <mergeCell ref="Q14:Q29"/>
-    <mergeCell ref="M14:M29"/>
     <mergeCell ref="M1:Q1"/>
     <mergeCell ref="L19:L29"/>
     <mergeCell ref="O19:O29"/>
@@ -2085,6 +2065,26 @@
     <mergeCell ref="A4:Q4"/>
     <mergeCell ref="P14:P29"/>
     <mergeCell ref="C13:K13"/>
+    <mergeCell ref="M8:Q8"/>
+    <mergeCell ref="D7:K7"/>
+    <mergeCell ref="E19:E29"/>
+    <mergeCell ref="C14:E18"/>
+    <mergeCell ref="B14:B29"/>
+    <mergeCell ref="H14:H29"/>
+    <mergeCell ref="G14:G29"/>
+    <mergeCell ref="F14:F29"/>
+    <mergeCell ref="I19:I29"/>
+    <mergeCell ref="C19:C29"/>
+    <mergeCell ref="K19:K29"/>
+    <mergeCell ref="Q14:Q29"/>
+    <mergeCell ref="M14:M29"/>
+    <mergeCell ref="S14:S29"/>
+    <mergeCell ref="R14:R29"/>
+    <mergeCell ref="N14:O18"/>
+    <mergeCell ref="A31:S31"/>
+    <mergeCell ref="J19:J29"/>
+    <mergeCell ref="I14:L18"/>
+    <mergeCell ref="A14:A29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="35" fitToHeight="0" orientation="landscape" horizontalDpi="4294967294" verticalDpi="4294967294" r:id="rId1"/>
@@ -2092,6 +2092,24 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxKeywordTaxHTField xmlns="27a80a21-4aed-40f1-b39d-00aef76d25f1">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </TaxKeywordTaxHTField>
+    <TaxCatchAll xmlns="27a80a21-4aed-40f1-b39d-00aef76d25f1"/>
+    <ja59e83f1efa4988a9d84f1ed80e9e80 xmlns="ba51a3dc-3600-43b4-9e90-084518075544">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ja59e83f1efa4988a9d84f1ed80e9e80>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Документ" ma:contentTypeID="0x0101003220086BDFF08D4697153991C5991007" ma:contentTypeVersion="6" ma:contentTypeDescription="Создание документа." ma:contentTypeScope="" ma:versionID="92861b40dc77cc7dc4f405e799d307eb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ba51a3dc-3600-43b4-9e90-084518075544" xmlns:ns3="27a80a21-4aed-40f1-b39d-00aef76d25f1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="697eb68cc161217d921f9e9932bb7be9" ns2:_="" ns3:_="">
     <xsd:import namespace="ba51a3dc-3600-43b4-9e90-084518075544"/>
@@ -2244,24 +2262,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxKeywordTaxHTField xmlns="27a80a21-4aed-40f1-b39d-00aef76d25f1">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </TaxKeywordTaxHTField>
-    <TaxCatchAll xmlns="27a80a21-4aed-40f1-b39d-00aef76d25f1"/>
-    <ja59e83f1efa4988a9d84f1ed80e9e80 xmlns="ba51a3dc-3600-43b4-9e90-084518075544">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ja59e83f1efa4988a9d84f1ed80e9e80>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-</file>
-
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -2272,20 +2272,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{23265495-F50B-4D0A-B1F7-E2F1BF735843}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91B1181E-E70F-4B46-8612-7A451D6C81B9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="ba51a3dc-3600-43b4-9e90-084518075544"/>
-    <ds:schemaRef ds:uri="27a80a21-4aed-40f1-b39d-00aef76d25f1"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2308,9 +2297,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91B1181E-E70F-4B46-8612-7A451D6C81B9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{23265495-F50B-4D0A-B1F7-E2F1BF735843}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ba51a3dc-3600-43b4-9e90-084518075544"/>
+    <ds:schemaRef ds:uri="27a80a21-4aed-40f1-b39d-00aef76d25f1"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/assets/templates/Ежегодный план плановых проверок.xlsx
+++ b/assets/templates/Ежегодный план плановых проверок.xlsx
@@ -163,15 +163,6 @@
     <t>${year}</t>
   </si>
   <si>
-    <t>${verification.confirmPerson}</t>
-  </si>
-  <si>
-    <t>${verification.documentRequisites}</t>
-  </si>
-  <si>
-    <t>${table:companies.name}</t>
-  </si>
-  <si>
     <t>${table:companies.juridicalAddress}</t>
   </si>
   <si>
@@ -181,39 +172,6 @@
     <t>${table:companies.INN}</t>
   </si>
   <si>
-    <t>${table:companies.OGRNOrOGRNIP}</t>
-  </si>
-  <si>
-    <t>${table:companies.verification.goal}</t>
-  </si>
-  <si>
-    <t>${table:companies.verification.registerDate}</t>
-  </si>
-  <si>
-    <t>${table:companies.verification.lastVerificationDate}</t>
-  </si>
-  <si>
-    <t>${table:companies.verification.dateOfBeginActivity}</t>
-  </si>
-  <si>
-    <t>${table:companies.verification.anotherBasis}</t>
-  </si>
-  <si>
-    <t>${table:companies.verification.beginDate.formatMM}</t>
-  </si>
-  <si>
-    <t>${table:companies.verification.duration.days}</t>
-  </si>
-  <si>
-    <t>${table:companies.verification.duration.hours}</t>
-  </si>
-  <si>
-    <t>${table:companies.verification.code}</t>
-  </si>
-  <si>
-    <t>${table:companies.verification.controlAgency}</t>
-  </si>
-  <si>
     <t>${table:companies.dangerClass}</t>
   </si>
   <si>
@@ -224,6 +182,48 @@
   </si>
   <si>
     <t>${table:companies.number}</t>
+  </si>
+  <si>
+    <t>${inspection.confirmPerson}</t>
+  </si>
+  <si>
+    <t>${inspection.documentRequisites}</t>
+  </si>
+  <si>
+    <t>${table:companies.fullname}</t>
+  </si>
+  <si>
+    <t>${table:companies.OGRN}</t>
+  </si>
+  <si>
+    <t>${table:companies.inspection.goal}</t>
+  </si>
+  <si>
+    <t>${table:companies.inspection.registerDate}</t>
+  </si>
+  <si>
+    <t>${table:companies.inspection.dateOfBeginActivity}</t>
+  </si>
+  <si>
+    <t>${table:companies.inspection.anotherBasis}</t>
+  </si>
+  <si>
+    <t>${table:companies.inspection.terms.beginDate.formatMM}</t>
+  </si>
+  <si>
+    <t>${table:companies.inspection.terms.duration.days}</t>
+  </si>
+  <si>
+    <t>${table:companies.inspection.duration.hours}</t>
+  </si>
+  <si>
+    <t>${table:companies.inspection.code}</t>
+  </si>
+  <si>
+    <t>${table:companies.inspection.controlAgency}</t>
+  </si>
+  <si>
+    <t>${table:companies.inspection.lastInspectionDate}</t>
   </si>
 </sst>
 </file>
@@ -1287,8 +1287,8 @@
   </sheetPr>
   <dimension ref="A1:S32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O45" sqref="M38:O45"/>
+    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1458,7 +1458,7 @@
       <c r="K9" s="86"/>
       <c r="L9" s="86"/>
       <c r="M9" s="82" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="N9" s="82"/>
       <c r="O9" s="82"/>
@@ -1479,7 +1479,7 @@
     <row r="11" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M11" s="20"/>
       <c r="N11" s="82" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="O11" s="82"/>
       <c r="P11" s="82"/>
@@ -1988,61 +1988,61 @@
     </row>
     <row r="32" spans="1:19" s="30" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A32" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="C32" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="D32" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="E32" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="G32" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="H32" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="I32" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="J32" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="B32" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="C32" s="35" t="s">
+      <c r="K32" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="L32" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="M32" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="N32" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="O32" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="P32" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q32" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="R32" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="D32" s="35" t="s">
+      <c r="S32" s="31" t="s">
         <v>43</v>
-      </c>
-      <c r="E32" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="F32" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="G32" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="H32" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="I32" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="J32" s="38" t="s">
-        <v>48</v>
-      </c>
-      <c r="K32" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="L32" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="M32" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="N32" s="40" t="s">
-        <v>52</v>
-      </c>
-      <c r="O32" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="P32" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q32" s="35" t="s">
-        <v>55</v>
-      </c>
-      <c r="R32" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="S32" s="31" t="s">
-        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/assets/templates/Ежегодный план плановых проверок.xlsx
+++ b/assets/templates/Ежегодный план плановых проверок.xlsx
@@ -205,9 +205,6 @@
     <t>${table:companies.inspection.dateOfBeginActivity}</t>
   </si>
   <si>
-    <t>${table:companies.inspection.anotherBasis}</t>
-  </si>
-  <si>
     <t>${table:companies.inspection.terms.beginDate.formatMM}</t>
   </si>
   <si>
@@ -224,6 +221,9 @@
   </si>
   <si>
     <t>${table:companies.inspection.lastInspectionDate}</t>
+  </si>
+  <si>
+    <t>${table:companies.inspection.anotherReasons}</t>
   </si>
 </sst>
 </file>
@@ -820,6 +820,138 @@
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
@@ -832,34 +964,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -868,114 +976,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1288,7 +1288,7 @@
   <dimension ref="A1:S32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:Q12"/>
+      <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1313,11 +1313,11 @@
       <c r="A1" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
       <c r="R1" s="4"/>
       <c r="S1" s="28"/>
     </row>
@@ -1328,14 +1328,14 @@
       <c r="B2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="83" t="s">
+      <c r="C2" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="85"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="50"/>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
@@ -1358,50 +1358,50 @@
       <c r="S3" s="3"/>
     </row>
     <row r="4" spans="1:19" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="88" t="s">
+      <c r="A4" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="88"/>
-      <c r="C4" s="88"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="88"/>
-      <c r="G4" s="88"/>
-      <c r="H4" s="88"/>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88"/>
-      <c r="K4" s="88"/>
-      <c r="L4" s="88"/>
-      <c r="M4" s="88"/>
-      <c r="N4" s="88"/>
-      <c r="O4" s="88"/>
-      <c r="P4" s="88"/>
-      <c r="Q4" s="88"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="53"/>
+      <c r="N4" s="53"/>
+      <c r="O4" s="53"/>
+      <c r="P4" s="53"/>
+      <c r="Q4" s="53"/>
       <c r="R4" s="11" t="s">
         <v>32</v>
       </c>
       <c r="S4" s="12"/>
     </row>
     <row r="5" spans="1:19" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="87" t="s">
+      <c r="A5" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="87"/>
-      <c r="C5" s="87"/>
-      <c r="D5" s="87"/>
-      <c r="E5" s="87"/>
-      <c r="F5" s="87"/>
-      <c r="G5" s="87"/>
-      <c r="H5" s="87"/>
-      <c r="I5" s="87"/>
-      <c r="J5" s="87"/>
-      <c r="K5" s="87"/>
-      <c r="L5" s="87"/>
-      <c r="M5" s="87"/>
-      <c r="N5" s="87"/>
-      <c r="O5" s="87"/>
-      <c r="P5" s="87"/>
-      <c r="Q5" s="87"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="52"/>
+      <c r="L5" s="52"/>
+      <c r="M5" s="52"/>
+      <c r="N5" s="52"/>
+      <c r="O5" s="52"/>
+      <c r="P5" s="52"/>
+      <c r="Q5" s="52"/>
       <c r="R5" s="11" t="s">
         <v>33</v>
       </c>
@@ -1409,117 +1409,117 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C6" s="14"/>
-      <c r="D6" s="82" t="s">
+      <c r="D6" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="82"/>
-      <c r="F6" s="82"/>
-      <c r="G6" s="82"/>
-      <c r="H6" s="82"/>
-      <c r="I6" s="82"/>
-      <c r="J6" s="82"/>
-      <c r="K6" s="82"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="47"/>
     </row>
     <row r="7" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D7" s="66" t="s">
+      <c r="D7" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="66"/>
-      <c r="J7" s="66"/>
-      <c r="K7" s="66"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
+      <c r="K7" s="57"/>
       <c r="R7" s="15"/>
     </row>
     <row r="8" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="M8" s="65" t="s">
+      <c r="M8" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="N8" s="65"/>
-      <c r="O8" s="65"/>
-      <c r="P8" s="65"/>
-      <c r="Q8" s="65"/>
+      <c r="N8" s="56"/>
+      <c r="O8" s="56"/>
+      <c r="P8" s="56"/>
+      <c r="Q8" s="56"/>
       <c r="R8" s="17"/>
       <c r="S8" s="18"/>
     </row>
     <row r="9" spans="1:19" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="86"/>
-      <c r="B9" s="86"/>
-      <c r="C9" s="86"/>
-      <c r="D9" s="86"/>
-      <c r="E9" s="86"/>
-      <c r="F9" s="86"/>
-      <c r="G9" s="86"/>
-      <c r="H9" s="86"/>
-      <c r="I9" s="86"/>
-      <c r="J9" s="86"/>
-      <c r="K9" s="86"/>
-      <c r="L9" s="86"/>
-      <c r="M9" s="82" t="s">
+      <c r="A9" s="51"/>
+      <c r="B9" s="51"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="51"/>
+      <c r="K9" s="51"/>
+      <c r="L9" s="51"/>
+      <c r="M9" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="N9" s="82"/>
-      <c r="O9" s="82"/>
-      <c r="P9" s="82"/>
-      <c r="Q9" s="82"/>
+      <c r="N9" s="47"/>
+      <c r="O9" s="47"/>
+      <c r="P9" s="47"/>
+      <c r="Q9" s="47"/>
       <c r="R9" s="17"/>
     </row>
     <row r="10" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M10" s="80" t="s">
+      <c r="M10" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="N10" s="80"/>
-      <c r="O10" s="80"/>
-      <c r="P10" s="80"/>
-      <c r="Q10" s="80"/>
+      <c r="N10" s="45"/>
+      <c r="O10" s="45"/>
+      <c r="P10" s="45"/>
+      <c r="Q10" s="45"/>
       <c r="R10" s="19"/>
     </row>
     <row r="11" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M11" s="20"/>
-      <c r="N11" s="82" t="s">
+      <c r="N11" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="O11" s="82"/>
-      <c r="P11" s="82"/>
-      <c r="Q11" s="82"/>
+      <c r="O11" s="47"/>
+      <c r="P11" s="47"/>
+      <c r="Q11" s="47"/>
       <c r="R11" s="21"/>
     </row>
     <row r="12" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="81" t="s">
+      <c r="B12" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="81"/>
-      <c r="D12" s="81"/>
-      <c r="E12" s="81"/>
-      <c r="F12" s="81"/>
-      <c r="G12" s="81"/>
-      <c r="H12" s="81"/>
-      <c r="I12" s="81"/>
-      <c r="J12" s="81"/>
-      <c r="K12" s="81"/>
-      <c r="L12" s="81"/>
-      <c r="M12" s="81"/>
-      <c r="N12" s="81"/>
-      <c r="O12" s="81"/>
-      <c r="P12" s="81"/>
-      <c r="Q12" s="81"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="46"/>
+      <c r="K12" s="46"/>
+      <c r="L12" s="46"/>
+      <c r="M12" s="46"/>
+      <c r="N12" s="46"/>
+      <c r="O12" s="46"/>
+      <c r="P12" s="46"/>
+      <c r="Q12" s="46"/>
       <c r="R12" s="23"/>
       <c r="S12" s="22"/>
     </row>
     <row r="13" spans="1:19" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="89" t="s">
+      <c r="C13" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="89"/>
-      <c r="E13" s="89"/>
-      <c r="F13" s="89"/>
-      <c r="G13" s="89"/>
-      <c r="H13" s="89"/>
-      <c r="I13" s="89"/>
-      <c r="J13" s="89"/>
-      <c r="K13" s="89"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="55"/>
+      <c r="I13" s="55"/>
+      <c r="J13" s="55"/>
+      <c r="K13" s="55"/>
       <c r="L13" s="32" t="s">
         <v>38</v>
       </c>
@@ -1528,384 +1528,384 @@
       <c r="S13" s="24"/>
     </row>
     <row r="14" spans="1:19" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="62" t="s">
+      <c r="A14" s="67" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="62" t="s">
+      <c r="B14" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="48" t="s">
+      <c r="C14" s="58" t="s">
         <v>2</v>
       </c>
       <c r="D14" s="59"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="71" t="s">
+      <c r="E14" s="60"/>
+      <c r="F14" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="G14" s="71" t="s">
+      <c r="G14" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="H14" s="44" t="s">
+      <c r="H14" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="I14" s="48" t="s">
+      <c r="I14" s="58" t="s">
         <v>4</v>
       </c>
       <c r="J14" s="59"/>
       <c r="K14" s="59"/>
-      <c r="L14" s="49"/>
-      <c r="M14" s="78" t="s">
+      <c r="L14" s="60"/>
+      <c r="M14" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="N14" s="48" t="s">
+      <c r="N14" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="O14" s="49"/>
-      <c r="P14" s="77" t="s">
+      <c r="O14" s="60"/>
+      <c r="P14" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="Q14" s="77" t="s">
+      <c r="Q14" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="R14" s="44" t="s">
+      <c r="R14" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="S14" s="41" t="s">
+      <c r="S14" s="83" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:19" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="63"/>
-      <c r="B15" s="63"/>
-      <c r="C15" s="50"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="72"/>
-      <c r="G15" s="72"/>
-      <c r="H15" s="45"/>
-      <c r="I15" s="50"/>
-      <c r="J15" s="60"/>
-      <c r="K15" s="60"/>
-      <c r="L15" s="51"/>
-      <c r="M15" s="57"/>
-      <c r="N15" s="50"/>
-      <c r="O15" s="51"/>
-      <c r="P15" s="68"/>
-      <c r="Q15" s="68"/>
-      <c r="R15" s="45"/>
-      <c r="S15" s="42"/>
+      <c r="A15" s="68"/>
+      <c r="B15" s="68"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="74"/>
+      <c r="G15" s="74"/>
+      <c r="H15" s="71"/>
+      <c r="I15" s="61"/>
+      <c r="J15" s="62"/>
+      <c r="K15" s="62"/>
+      <c r="L15" s="63"/>
+      <c r="M15" s="77"/>
+      <c r="N15" s="61"/>
+      <c r="O15" s="63"/>
+      <c r="P15" s="43"/>
+      <c r="Q15" s="43"/>
+      <c r="R15" s="71"/>
+      <c r="S15" s="84"/>
     </row>
     <row r="16" spans="1:19" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="63"/>
-      <c r="B16" s="63"/>
-      <c r="C16" s="50"/>
-      <c r="D16" s="60"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="72"/>
-      <c r="G16" s="72"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="50"/>
-      <c r="J16" s="60"/>
-      <c r="K16" s="60"/>
-      <c r="L16" s="51"/>
-      <c r="M16" s="57"/>
-      <c r="N16" s="50"/>
-      <c r="O16" s="51"/>
-      <c r="P16" s="68"/>
-      <c r="Q16" s="68"/>
-      <c r="R16" s="45"/>
-      <c r="S16" s="42"/>
+      <c r="A16" s="68"/>
+      <c r="B16" s="68"/>
+      <c r="C16" s="61"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="74"/>
+      <c r="G16" s="74"/>
+      <c r="H16" s="71"/>
+      <c r="I16" s="61"/>
+      <c r="J16" s="62"/>
+      <c r="K16" s="62"/>
+      <c r="L16" s="63"/>
+      <c r="M16" s="77"/>
+      <c r="N16" s="61"/>
+      <c r="O16" s="63"/>
+      <c r="P16" s="43"/>
+      <c r="Q16" s="43"/>
+      <c r="R16" s="71"/>
+      <c r="S16" s="84"/>
     </row>
     <row r="17" spans="1:19" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="63"/>
-      <c r="B17" s="63"/>
-      <c r="C17" s="50"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="72"/>
-      <c r="G17" s="72"/>
-      <c r="H17" s="45"/>
-      <c r="I17" s="50"/>
-      <c r="J17" s="60"/>
-      <c r="K17" s="60"/>
-      <c r="L17" s="51"/>
-      <c r="M17" s="57"/>
-      <c r="N17" s="50"/>
-      <c r="O17" s="51"/>
-      <c r="P17" s="68"/>
-      <c r="Q17" s="68"/>
-      <c r="R17" s="45"/>
-      <c r="S17" s="42"/>
+      <c r="A17" s="68"/>
+      <c r="B17" s="68"/>
+      <c r="C17" s="61"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="74"/>
+      <c r="G17" s="74"/>
+      <c r="H17" s="71"/>
+      <c r="I17" s="61"/>
+      <c r="J17" s="62"/>
+      <c r="K17" s="62"/>
+      <c r="L17" s="63"/>
+      <c r="M17" s="77"/>
+      <c r="N17" s="61"/>
+      <c r="O17" s="63"/>
+      <c r="P17" s="43"/>
+      <c r="Q17" s="43"/>
+      <c r="R17" s="71"/>
+      <c r="S17" s="84"/>
     </row>
     <row r="18" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="63"/>
-      <c r="B18" s="63"/>
-      <c r="C18" s="52"/>
-      <c r="D18" s="61"/>
-      <c r="E18" s="53"/>
-      <c r="F18" s="72"/>
-      <c r="G18" s="72"/>
-      <c r="H18" s="45"/>
-      <c r="I18" s="52"/>
-      <c r="J18" s="61"/>
-      <c r="K18" s="61"/>
-      <c r="L18" s="53"/>
-      <c r="M18" s="57"/>
-      <c r="N18" s="52"/>
-      <c r="O18" s="53"/>
-      <c r="P18" s="68"/>
-      <c r="Q18" s="68"/>
-      <c r="R18" s="45"/>
-      <c r="S18" s="42"/>
+      <c r="A18" s="68"/>
+      <c r="B18" s="68"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="66"/>
+      <c r="F18" s="74"/>
+      <c r="G18" s="74"/>
+      <c r="H18" s="71"/>
+      <c r="I18" s="64"/>
+      <c r="J18" s="65"/>
+      <c r="K18" s="65"/>
+      <c r="L18" s="66"/>
+      <c r="M18" s="77"/>
+      <c r="N18" s="64"/>
+      <c r="O18" s="66"/>
+      <c r="P18" s="43"/>
+      <c r="Q18" s="43"/>
+      <c r="R18" s="71"/>
+      <c r="S18" s="84"/>
     </row>
     <row r="19" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="63"/>
-      <c r="B19" s="63"/>
-      <c r="C19" s="74" t="s">
+      <c r="A19" s="68"/>
+      <c r="B19" s="68"/>
+      <c r="C19" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="67" t="s">
+      <c r="D19" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="E19" s="67" t="s">
+      <c r="E19" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="F19" s="72"/>
-      <c r="G19" s="72"/>
-      <c r="H19" s="45"/>
-      <c r="I19" s="56" t="s">
+      <c r="F19" s="74"/>
+      <c r="G19" s="74"/>
+      <c r="H19" s="71"/>
+      <c r="I19" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="J19" s="56" t="s">
+      <c r="J19" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="K19" s="56" t="s">
+      <c r="K19" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="L19" s="67" t="s">
+      <c r="L19" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="M19" s="57"/>
-      <c r="N19" s="67" t="s">
+      <c r="M19" s="77"/>
+      <c r="N19" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="O19" s="67" t="s">
+      <c r="O19" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="P19" s="68"/>
-      <c r="Q19" s="68"/>
-      <c r="R19" s="46"/>
-      <c r="S19" s="42"/>
+      <c r="P19" s="43"/>
+      <c r="Q19" s="43"/>
+      <c r="R19" s="86"/>
+      <c r="S19" s="84"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A20" s="63"/>
-      <c r="B20" s="63"/>
-      <c r="C20" s="75"/>
-      <c r="D20" s="68"/>
-      <c r="E20" s="68"/>
-      <c r="F20" s="72"/>
-      <c r="G20" s="72"/>
-      <c r="H20" s="45"/>
-      <c r="I20" s="57"/>
-      <c r="J20" s="57"/>
-      <c r="K20" s="57"/>
-      <c r="L20" s="68"/>
-      <c r="M20" s="57"/>
-      <c r="N20" s="68"/>
-      <c r="O20" s="68"/>
-      <c r="P20" s="68"/>
-      <c r="Q20" s="68"/>
-      <c r="R20" s="46"/>
-      <c r="S20" s="42"/>
+      <c r="A20" s="68"/>
+      <c r="B20" s="68"/>
+      <c r="C20" s="80"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="74"/>
+      <c r="G20" s="74"/>
+      <c r="H20" s="71"/>
+      <c r="I20" s="77"/>
+      <c r="J20" s="77"/>
+      <c r="K20" s="77"/>
+      <c r="L20" s="43"/>
+      <c r="M20" s="77"/>
+      <c r="N20" s="43"/>
+      <c r="O20" s="43"/>
+      <c r="P20" s="43"/>
+      <c r="Q20" s="43"/>
+      <c r="R20" s="86"/>
+      <c r="S20" s="84"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A21" s="63"/>
-      <c r="B21" s="63"/>
-      <c r="C21" s="75"/>
-      <c r="D21" s="68"/>
-      <c r="E21" s="68"/>
-      <c r="F21" s="72"/>
-      <c r="G21" s="72"/>
-      <c r="H21" s="45"/>
-      <c r="I21" s="57"/>
-      <c r="J21" s="57"/>
-      <c r="K21" s="57"/>
-      <c r="L21" s="68"/>
-      <c r="M21" s="57"/>
-      <c r="N21" s="68"/>
-      <c r="O21" s="68"/>
-      <c r="P21" s="68"/>
-      <c r="Q21" s="68"/>
-      <c r="R21" s="46"/>
-      <c r="S21" s="42"/>
+      <c r="A21" s="68"/>
+      <c r="B21" s="68"/>
+      <c r="C21" s="80"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="74"/>
+      <c r="G21" s="74"/>
+      <c r="H21" s="71"/>
+      <c r="I21" s="77"/>
+      <c r="J21" s="77"/>
+      <c r="K21" s="77"/>
+      <c r="L21" s="43"/>
+      <c r="M21" s="77"/>
+      <c r="N21" s="43"/>
+      <c r="O21" s="43"/>
+      <c r="P21" s="43"/>
+      <c r="Q21" s="43"/>
+      <c r="R21" s="86"/>
+      <c r="S21" s="84"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A22" s="63"/>
-      <c r="B22" s="63"/>
-      <c r="C22" s="75"/>
-      <c r="D22" s="68"/>
-      <c r="E22" s="68"/>
-      <c r="F22" s="72"/>
-      <c r="G22" s="72"/>
-      <c r="H22" s="45"/>
-      <c r="I22" s="57"/>
-      <c r="J22" s="57"/>
-      <c r="K22" s="57"/>
-      <c r="L22" s="68"/>
-      <c r="M22" s="57"/>
-      <c r="N22" s="68"/>
-      <c r="O22" s="68"/>
-      <c r="P22" s="68"/>
-      <c r="Q22" s="68"/>
-      <c r="R22" s="46"/>
-      <c r="S22" s="42"/>
+      <c r="A22" s="68"/>
+      <c r="B22" s="68"/>
+      <c r="C22" s="80"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="74"/>
+      <c r="G22" s="74"/>
+      <c r="H22" s="71"/>
+      <c r="I22" s="77"/>
+      <c r="J22" s="77"/>
+      <c r="K22" s="77"/>
+      <c r="L22" s="43"/>
+      <c r="M22" s="77"/>
+      <c r="N22" s="43"/>
+      <c r="O22" s="43"/>
+      <c r="P22" s="43"/>
+      <c r="Q22" s="43"/>
+      <c r="R22" s="86"/>
+      <c r="S22" s="84"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A23" s="63"/>
-      <c r="B23" s="63"/>
-      <c r="C23" s="75"/>
-      <c r="D23" s="68"/>
-      <c r="E23" s="68"/>
-      <c r="F23" s="72"/>
-      <c r="G23" s="72"/>
-      <c r="H23" s="45"/>
-      <c r="I23" s="57"/>
-      <c r="J23" s="57"/>
-      <c r="K23" s="57"/>
-      <c r="L23" s="68"/>
-      <c r="M23" s="57"/>
-      <c r="N23" s="68"/>
-      <c r="O23" s="68"/>
-      <c r="P23" s="68"/>
-      <c r="Q23" s="68"/>
-      <c r="R23" s="46"/>
-      <c r="S23" s="42"/>
+      <c r="A23" s="68"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="80"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="74"/>
+      <c r="G23" s="74"/>
+      <c r="H23" s="71"/>
+      <c r="I23" s="77"/>
+      <c r="J23" s="77"/>
+      <c r="K23" s="77"/>
+      <c r="L23" s="43"/>
+      <c r="M23" s="77"/>
+      <c r="N23" s="43"/>
+      <c r="O23" s="43"/>
+      <c r="P23" s="43"/>
+      <c r="Q23" s="43"/>
+      <c r="R23" s="86"/>
+      <c r="S23" s="84"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A24" s="63"/>
-      <c r="B24" s="63"/>
-      <c r="C24" s="75"/>
-      <c r="D24" s="68"/>
-      <c r="E24" s="68"/>
-      <c r="F24" s="72"/>
-      <c r="G24" s="72"/>
-      <c r="H24" s="45"/>
-      <c r="I24" s="57"/>
-      <c r="J24" s="57"/>
-      <c r="K24" s="57"/>
-      <c r="L24" s="68"/>
-      <c r="M24" s="57"/>
-      <c r="N24" s="68"/>
-      <c r="O24" s="68"/>
-      <c r="P24" s="68"/>
-      <c r="Q24" s="68"/>
-      <c r="R24" s="46"/>
-      <c r="S24" s="42"/>
+      <c r="A24" s="68"/>
+      <c r="B24" s="68"/>
+      <c r="C24" s="80"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="74"/>
+      <c r="G24" s="74"/>
+      <c r="H24" s="71"/>
+      <c r="I24" s="77"/>
+      <c r="J24" s="77"/>
+      <c r="K24" s="77"/>
+      <c r="L24" s="43"/>
+      <c r="M24" s="77"/>
+      <c r="N24" s="43"/>
+      <c r="O24" s="43"/>
+      <c r="P24" s="43"/>
+      <c r="Q24" s="43"/>
+      <c r="R24" s="86"/>
+      <c r="S24" s="84"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A25" s="63"/>
-      <c r="B25" s="63"/>
-      <c r="C25" s="75"/>
-      <c r="D25" s="68"/>
-      <c r="E25" s="68"/>
-      <c r="F25" s="72"/>
-      <c r="G25" s="72"/>
-      <c r="H25" s="45"/>
-      <c r="I25" s="57"/>
-      <c r="J25" s="57"/>
-      <c r="K25" s="57"/>
-      <c r="L25" s="68"/>
-      <c r="M25" s="57"/>
-      <c r="N25" s="68"/>
-      <c r="O25" s="68"/>
-      <c r="P25" s="68"/>
-      <c r="Q25" s="68"/>
-      <c r="R25" s="46"/>
-      <c r="S25" s="42"/>
+      <c r="A25" s="68"/>
+      <c r="B25" s="68"/>
+      <c r="C25" s="80"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="74"/>
+      <c r="G25" s="74"/>
+      <c r="H25" s="71"/>
+      <c r="I25" s="77"/>
+      <c r="J25" s="77"/>
+      <c r="K25" s="77"/>
+      <c r="L25" s="43"/>
+      <c r="M25" s="77"/>
+      <c r="N25" s="43"/>
+      <c r="O25" s="43"/>
+      <c r="P25" s="43"/>
+      <c r="Q25" s="43"/>
+      <c r="R25" s="86"/>
+      <c r="S25" s="84"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A26" s="63"/>
-      <c r="B26" s="63"/>
-      <c r="C26" s="75"/>
-      <c r="D26" s="68"/>
-      <c r="E26" s="68"/>
-      <c r="F26" s="72"/>
-      <c r="G26" s="72"/>
-      <c r="H26" s="45"/>
-      <c r="I26" s="57"/>
-      <c r="J26" s="57"/>
-      <c r="K26" s="57"/>
-      <c r="L26" s="68"/>
-      <c r="M26" s="57"/>
-      <c r="N26" s="68"/>
-      <c r="O26" s="68"/>
-      <c r="P26" s="68"/>
-      <c r="Q26" s="68"/>
-      <c r="R26" s="46"/>
-      <c r="S26" s="42"/>
+      <c r="A26" s="68"/>
+      <c r="B26" s="68"/>
+      <c r="C26" s="80"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="74"/>
+      <c r="G26" s="74"/>
+      <c r="H26" s="71"/>
+      <c r="I26" s="77"/>
+      <c r="J26" s="77"/>
+      <c r="K26" s="77"/>
+      <c r="L26" s="43"/>
+      <c r="M26" s="77"/>
+      <c r="N26" s="43"/>
+      <c r="O26" s="43"/>
+      <c r="P26" s="43"/>
+      <c r="Q26" s="43"/>
+      <c r="R26" s="86"/>
+      <c r="S26" s="84"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A27" s="63"/>
-      <c r="B27" s="63"/>
-      <c r="C27" s="75"/>
-      <c r="D27" s="68"/>
-      <c r="E27" s="68"/>
-      <c r="F27" s="72"/>
-      <c r="G27" s="72"/>
-      <c r="H27" s="45"/>
-      <c r="I27" s="57"/>
-      <c r="J27" s="57"/>
-      <c r="K27" s="57"/>
-      <c r="L27" s="68"/>
-      <c r="M27" s="57"/>
-      <c r="N27" s="68"/>
-      <c r="O27" s="68"/>
-      <c r="P27" s="68"/>
-      <c r="Q27" s="68"/>
-      <c r="R27" s="46"/>
-      <c r="S27" s="42"/>
+      <c r="A27" s="68"/>
+      <c r="B27" s="68"/>
+      <c r="C27" s="80"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="74"/>
+      <c r="G27" s="74"/>
+      <c r="H27" s="71"/>
+      <c r="I27" s="77"/>
+      <c r="J27" s="77"/>
+      <c r="K27" s="77"/>
+      <c r="L27" s="43"/>
+      <c r="M27" s="77"/>
+      <c r="N27" s="43"/>
+      <c r="O27" s="43"/>
+      <c r="P27" s="43"/>
+      <c r="Q27" s="43"/>
+      <c r="R27" s="86"/>
+      <c r="S27" s="84"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A28" s="63"/>
-      <c r="B28" s="63"/>
-      <c r="C28" s="75"/>
-      <c r="D28" s="68"/>
-      <c r="E28" s="68"/>
-      <c r="F28" s="72"/>
-      <c r="G28" s="72"/>
-      <c r="H28" s="45"/>
-      <c r="I28" s="57"/>
-      <c r="J28" s="57"/>
-      <c r="K28" s="57"/>
-      <c r="L28" s="68"/>
-      <c r="M28" s="57"/>
-      <c r="N28" s="68"/>
-      <c r="O28" s="68"/>
-      <c r="P28" s="68"/>
-      <c r="Q28" s="68"/>
-      <c r="R28" s="46"/>
-      <c r="S28" s="42"/>
+      <c r="A28" s="68"/>
+      <c r="B28" s="68"/>
+      <c r="C28" s="80"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="74"/>
+      <c r="G28" s="74"/>
+      <c r="H28" s="71"/>
+      <c r="I28" s="77"/>
+      <c r="J28" s="77"/>
+      <c r="K28" s="77"/>
+      <c r="L28" s="43"/>
+      <c r="M28" s="77"/>
+      <c r="N28" s="43"/>
+      <c r="O28" s="43"/>
+      <c r="P28" s="43"/>
+      <c r="Q28" s="43"/>
+      <c r="R28" s="86"/>
+      <c r="S28" s="84"/>
     </row>
     <row r="29" spans="1:19" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="64"/>
-      <c r="B29" s="64"/>
-      <c r="C29" s="76"/>
-      <c r="D29" s="69"/>
-      <c r="E29" s="69"/>
-      <c r="F29" s="73"/>
-      <c r="G29" s="73"/>
-      <c r="H29" s="70"/>
-      <c r="I29" s="58"/>
-      <c r="J29" s="58"/>
-      <c r="K29" s="58"/>
-      <c r="L29" s="69"/>
-      <c r="M29" s="58"/>
-      <c r="N29" s="69"/>
-      <c r="O29" s="69"/>
-      <c r="P29" s="69"/>
-      <c r="Q29" s="69"/>
-      <c r="R29" s="47"/>
-      <c r="S29" s="43"/>
+      <c r="A29" s="69"/>
+      <c r="B29" s="69"/>
+      <c r="C29" s="81"/>
+      <c r="D29" s="44"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="75"/>
+      <c r="G29" s="75"/>
+      <c r="H29" s="72"/>
+      <c r="I29" s="78"/>
+      <c r="J29" s="78"/>
+      <c r="K29" s="78"/>
+      <c r="L29" s="44"/>
+      <c r="M29" s="78"/>
+      <c r="N29" s="44"/>
+      <c r="O29" s="44"/>
+      <c r="P29" s="44"/>
+      <c r="Q29" s="44"/>
+      <c r="R29" s="87"/>
+      <c r="S29" s="85"/>
     </row>
     <row r="30" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B30" s="26">
@@ -1964,27 +1964,27 @@
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A31" s="54" t="s">
+      <c r="A31" s="88" t="s">
         <v>36</v>
       </c>
-      <c r="B31" s="54"/>
-      <c r="C31" s="54"/>
-      <c r="D31" s="54"/>
-      <c r="E31" s="54"/>
-      <c r="F31" s="54"/>
-      <c r="G31" s="54"/>
-      <c r="H31" s="54"/>
-      <c r="I31" s="54"/>
-      <c r="J31" s="54"/>
-      <c r="K31" s="54"/>
-      <c r="L31" s="54"/>
-      <c r="M31" s="54"/>
-      <c r="N31" s="54"/>
-      <c r="O31" s="54"/>
-      <c r="P31" s="54"/>
-      <c r="Q31" s="54"/>
-      <c r="R31" s="54"/>
-      <c r="S31" s="55"/>
+      <c r="B31" s="88"/>
+      <c r="C31" s="88"/>
+      <c r="D31" s="88"/>
+      <c r="E31" s="88"/>
+      <c r="F31" s="88"/>
+      <c r="G31" s="88"/>
+      <c r="H31" s="88"/>
+      <c r="I31" s="88"/>
+      <c r="J31" s="88"/>
+      <c r="K31" s="88"/>
+      <c r="L31" s="88"/>
+      <c r="M31" s="88"/>
+      <c r="N31" s="88"/>
+      <c r="O31" s="88"/>
+      <c r="P31" s="88"/>
+      <c r="Q31" s="88"/>
+      <c r="R31" s="88"/>
+      <c r="S31" s="89"/>
     </row>
     <row r="32" spans="1:19" s="30" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A32" s="29" t="s">
@@ -2015,28 +2015,28 @@
         <v>51</v>
       </c>
       <c r="J32" s="38" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K32" s="38" t="s">
         <v>52</v>
       </c>
       <c r="L32" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="M32" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="M32" s="39" t="s">
+      <c r="N32" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="N32" s="40" t="s">
+      <c r="O32" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="O32" s="40" t="s">
+      <c r="P32" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="P32" s="35" t="s">
+      <c r="Q32" s="35" t="s">
         <v>57</v>
-      </c>
-      <c r="Q32" s="35" t="s">
-        <v>58</v>
       </c>
       <c r="R32" s="39" t="s">
         <v>42</v>
@@ -2049,6 +2049,26 @@
   <autoFilter ref="A30:S32"/>
   <dataConsolidate/>
   <mergeCells count="36">
+    <mergeCell ref="S14:S29"/>
+    <mergeCell ref="R14:R29"/>
+    <mergeCell ref="N14:O18"/>
+    <mergeCell ref="A31:S31"/>
+    <mergeCell ref="J19:J29"/>
+    <mergeCell ref="I14:L18"/>
+    <mergeCell ref="A14:A29"/>
+    <mergeCell ref="M8:Q8"/>
+    <mergeCell ref="D7:K7"/>
+    <mergeCell ref="E19:E29"/>
+    <mergeCell ref="C14:E18"/>
+    <mergeCell ref="B14:B29"/>
+    <mergeCell ref="H14:H29"/>
+    <mergeCell ref="G14:G29"/>
+    <mergeCell ref="F14:F29"/>
+    <mergeCell ref="I19:I29"/>
+    <mergeCell ref="C19:C29"/>
+    <mergeCell ref="K19:K29"/>
+    <mergeCell ref="Q14:Q29"/>
+    <mergeCell ref="M14:M29"/>
     <mergeCell ref="M1:Q1"/>
     <mergeCell ref="L19:L29"/>
     <mergeCell ref="O19:O29"/>
@@ -2065,26 +2085,6 @@
     <mergeCell ref="A4:Q4"/>
     <mergeCell ref="P14:P29"/>
     <mergeCell ref="C13:K13"/>
-    <mergeCell ref="M8:Q8"/>
-    <mergeCell ref="D7:K7"/>
-    <mergeCell ref="E19:E29"/>
-    <mergeCell ref="C14:E18"/>
-    <mergeCell ref="B14:B29"/>
-    <mergeCell ref="H14:H29"/>
-    <mergeCell ref="G14:G29"/>
-    <mergeCell ref="F14:F29"/>
-    <mergeCell ref="I19:I29"/>
-    <mergeCell ref="C19:C29"/>
-    <mergeCell ref="K19:K29"/>
-    <mergeCell ref="Q14:Q29"/>
-    <mergeCell ref="M14:M29"/>
-    <mergeCell ref="S14:S29"/>
-    <mergeCell ref="R14:R29"/>
-    <mergeCell ref="N14:O18"/>
-    <mergeCell ref="A31:S31"/>
-    <mergeCell ref="J19:J29"/>
-    <mergeCell ref="I14:L18"/>
-    <mergeCell ref="A14:A29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="35" fitToHeight="0" orientation="landscape" horizontalDpi="4294967294" verticalDpi="4294967294" r:id="rId1"/>
@@ -2092,24 +2092,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxKeywordTaxHTField xmlns="27a80a21-4aed-40f1-b39d-00aef76d25f1">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </TaxKeywordTaxHTField>
-    <TaxCatchAll xmlns="27a80a21-4aed-40f1-b39d-00aef76d25f1"/>
-    <ja59e83f1efa4988a9d84f1ed80e9e80 xmlns="ba51a3dc-3600-43b4-9e90-084518075544">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ja59e83f1efa4988a9d84f1ed80e9e80>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Документ" ma:contentTypeID="0x0101003220086BDFF08D4697153991C5991007" ma:contentTypeVersion="6" ma:contentTypeDescription="Создание документа." ma:contentTypeScope="" ma:versionID="92861b40dc77cc7dc4f405e799d307eb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ba51a3dc-3600-43b4-9e90-084518075544" xmlns:ns3="27a80a21-4aed-40f1-b39d-00aef76d25f1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="697eb68cc161217d921f9e9932bb7be9" ns2:_="" ns3:_="">
     <xsd:import namespace="ba51a3dc-3600-43b4-9e90-084518075544"/>
@@ -2262,6 +2244,24 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxKeywordTaxHTField xmlns="27a80a21-4aed-40f1-b39d-00aef76d25f1">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </TaxKeywordTaxHTField>
+    <TaxCatchAll xmlns="27a80a21-4aed-40f1-b39d-00aef76d25f1"/>
+    <ja59e83f1efa4988a9d84f1ed80e9e80 xmlns="ba51a3dc-3600-43b4-9e90-084518075544">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ja59e83f1efa4988a9d84f1ed80e9e80>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+</file>
+
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -2272,9 +2272,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91B1181E-E70F-4B46-8612-7A451D6C81B9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{23265495-F50B-4D0A-B1F7-E2F1BF735843}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ba51a3dc-3600-43b4-9e90-084518075544"/>
+    <ds:schemaRef ds:uri="27a80a21-4aed-40f1-b39d-00aef76d25f1"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2297,20 +2308,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{23265495-F50B-4D0A-B1F7-E2F1BF735843}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91B1181E-E70F-4B46-8612-7A451D6C81B9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="ba51a3dc-3600-43b4-9e90-084518075544"/>
-    <ds:schemaRef ds:uri="27a80a21-4aed-40f1-b39d-00aef76d25f1"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/assets/templates/Ежегодный план плановых проверок.xlsx
+++ b/assets/templates/Ежегодный план плановых проверок.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\practice\fileCreator\assets\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\fileCreator\assets\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <workbookProtection workbookPassword="EC85" lockStructure="1"/>
@@ -202,18 +202,12 @@
     <t>${table:companies.inspection.registerDate}</t>
   </si>
   <si>
-    <t>${table:companies.inspection.dateOfBeginActivity}</t>
-  </si>
-  <si>
     <t>${table:companies.inspection.terms.beginDate.formatMM}</t>
   </si>
   <si>
     <t>${table:companies.inspection.terms.duration.days}</t>
   </si>
   <si>
-    <t>${table:companies.inspection.duration.hours}</t>
-  </si>
-  <si>
     <t>${table:companies.inspection.code}</t>
   </si>
   <si>
@@ -224,12 +218,18 @@
   </si>
   <si>
     <t>${table:companies.inspection.anotherReasons}</t>
+  </si>
+  <si>
+    <t>${table:companies.inspection.beginActivityDate}</t>
+  </si>
+  <si>
+    <t>${table:companies.inspection.terms.duration.hours}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -820,18 +820,129 @@
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
@@ -863,119 +974,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1287,8 +1287,8 @@
   </sheetPr>
   <dimension ref="A1:S32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L32" sqref="L32"/>
+    <sheetView tabSelected="1" topLeftCell="H16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N34" sqref="N34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1313,11 +1313,11 @@
       <c r="A1" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="41"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
       <c r="R1" s="4"/>
       <c r="S1" s="28"/>
     </row>
@@ -1328,14 +1328,14 @@
       <c r="B2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="48" t="s">
+      <c r="C2" s="83" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="50"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="85"/>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
@@ -1358,50 +1358,50 @@
       <c r="S3" s="3"/>
     </row>
     <row r="4" spans="1:19" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="53" t="s">
+      <c r="A4" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="53"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
-      <c r="M4" s="53"/>
-      <c r="N4" s="53"/>
-      <c r="O4" s="53"/>
-      <c r="P4" s="53"/>
-      <c r="Q4" s="53"/>
+      <c r="B4" s="88"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="88"/>
+      <c r="L4" s="88"/>
+      <c r="M4" s="88"/>
+      <c r="N4" s="88"/>
+      <c r="O4" s="88"/>
+      <c r="P4" s="88"/>
+      <c r="Q4" s="88"/>
       <c r="R4" s="11" t="s">
         <v>32</v>
       </c>
       <c r="S4" s="12"/>
     </row>
     <row r="5" spans="1:19" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="52" t="s">
+      <c r="A5" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="52"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="52"/>
-      <c r="I5" s="52"/>
-      <c r="J5" s="52"/>
-      <c r="K5" s="52"/>
-      <c r="L5" s="52"/>
-      <c r="M5" s="52"/>
-      <c r="N5" s="52"/>
-      <c r="O5" s="52"/>
-      <c r="P5" s="52"/>
-      <c r="Q5" s="52"/>
+      <c r="B5" s="87"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="87"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="87"/>
+      <c r="H5" s="87"/>
+      <c r="I5" s="87"/>
+      <c r="J5" s="87"/>
+      <c r="K5" s="87"/>
+      <c r="L5" s="87"/>
+      <c r="M5" s="87"/>
+      <c r="N5" s="87"/>
+      <c r="O5" s="87"/>
+      <c r="P5" s="87"/>
+      <c r="Q5" s="87"/>
       <c r="R5" s="11" t="s">
         <v>33</v>
       </c>
@@ -1409,117 +1409,117 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C6" s="14"/>
-      <c r="D6" s="47" t="s">
+      <c r="D6" s="82" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="47"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="82"/>
+      <c r="G6" s="82"/>
+      <c r="H6" s="82"/>
+      <c r="I6" s="82"/>
+      <c r="J6" s="82"/>
+      <c r="K6" s="82"/>
     </row>
     <row r="7" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D7" s="57" t="s">
+      <c r="D7" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57"/>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
-      <c r="K7" s="57"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="66"/>
+      <c r="K7" s="66"/>
       <c r="R7" s="15"/>
     </row>
     <row r="8" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="M8" s="56" t="s">
+      <c r="M8" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="N8" s="56"/>
-      <c r="O8" s="56"/>
-      <c r="P8" s="56"/>
-      <c r="Q8" s="56"/>
+      <c r="N8" s="65"/>
+      <c r="O8" s="65"/>
+      <c r="P8" s="65"/>
+      <c r="Q8" s="65"/>
       <c r="R8" s="17"/>
       <c r="S8" s="18"/>
     </row>
     <row r="9" spans="1:19" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="51"/>
-      <c r="B9" s="51"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="51"/>
-      <c r="J9" s="51"/>
-      <c r="K9" s="51"/>
-      <c r="L9" s="51"/>
-      <c r="M9" s="47" t="s">
+      <c r="A9" s="86"/>
+      <c r="B9" s="86"/>
+      <c r="C9" s="86"/>
+      <c r="D9" s="86"/>
+      <c r="E9" s="86"/>
+      <c r="F9" s="86"/>
+      <c r="G9" s="86"/>
+      <c r="H9" s="86"/>
+      <c r="I9" s="86"/>
+      <c r="J9" s="86"/>
+      <c r="K9" s="86"/>
+      <c r="L9" s="86"/>
+      <c r="M9" s="82" t="s">
         <v>46</v>
       </c>
-      <c r="N9" s="47"/>
-      <c r="O9" s="47"/>
-      <c r="P9" s="47"/>
-      <c r="Q9" s="47"/>
+      <c r="N9" s="82"/>
+      <c r="O9" s="82"/>
+      <c r="P9" s="82"/>
+      <c r="Q9" s="82"/>
       <c r="R9" s="17"/>
     </row>
     <row r="10" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M10" s="45" t="s">
+      <c r="M10" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="N10" s="45"/>
-      <c r="O10" s="45"/>
-      <c r="P10" s="45"/>
-      <c r="Q10" s="45"/>
+      <c r="N10" s="80"/>
+      <c r="O10" s="80"/>
+      <c r="P10" s="80"/>
+      <c r="Q10" s="80"/>
       <c r="R10" s="19"/>
     </row>
     <row r="11" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M11" s="20"/>
-      <c r="N11" s="47" t="s">
+      <c r="N11" s="82" t="s">
         <v>47</v>
       </c>
-      <c r="O11" s="47"/>
-      <c r="P11" s="47"/>
-      <c r="Q11" s="47"/>
+      <c r="O11" s="82"/>
+      <c r="P11" s="82"/>
+      <c r="Q11" s="82"/>
       <c r="R11" s="21"/>
     </row>
     <row r="12" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="46" t="s">
+      <c r="B12" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="46"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="46"/>
-      <c r="I12" s="46"/>
-      <c r="J12" s="46"/>
-      <c r="K12" s="46"/>
-      <c r="L12" s="46"/>
-      <c r="M12" s="46"/>
-      <c r="N12" s="46"/>
-      <c r="O12" s="46"/>
-      <c r="P12" s="46"/>
-      <c r="Q12" s="46"/>
+      <c r="C12" s="81"/>
+      <c r="D12" s="81"/>
+      <c r="E12" s="81"/>
+      <c r="F12" s="81"/>
+      <c r="G12" s="81"/>
+      <c r="H12" s="81"/>
+      <c r="I12" s="81"/>
+      <c r="J12" s="81"/>
+      <c r="K12" s="81"/>
+      <c r="L12" s="81"/>
+      <c r="M12" s="81"/>
+      <c r="N12" s="81"/>
+      <c r="O12" s="81"/>
+      <c r="P12" s="81"/>
+      <c r="Q12" s="81"/>
       <c r="R12" s="23"/>
       <c r="S12" s="22"/>
     </row>
     <row r="13" spans="1:19" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="55" t="s">
+      <c r="C13" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="55"/>
-      <c r="E13" s="55"/>
-      <c r="F13" s="55"/>
-      <c r="G13" s="55"/>
-      <c r="H13" s="55"/>
-      <c r="I13" s="55"/>
-      <c r="J13" s="55"/>
-      <c r="K13" s="55"/>
+      <c r="D13" s="89"/>
+      <c r="E13" s="89"/>
+      <c r="F13" s="89"/>
+      <c r="G13" s="89"/>
+      <c r="H13" s="89"/>
+      <c r="I13" s="89"/>
+      <c r="J13" s="89"/>
+      <c r="K13" s="89"/>
       <c r="L13" s="32" t="s">
         <v>38</v>
       </c>
@@ -1528,384 +1528,384 @@
       <c r="S13" s="24"/>
     </row>
     <row r="14" spans="1:19" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="67" t="s">
+      <c r="A14" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="67" t="s">
+      <c r="B14" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="58" t="s">
+      <c r="C14" s="48" t="s">
         <v>2</v>
       </c>
       <c r="D14" s="59"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="73" t="s">
+      <c r="E14" s="49"/>
+      <c r="F14" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="G14" s="73" t="s">
+      <c r="G14" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="H14" s="70" t="s">
+      <c r="H14" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="I14" s="58" t="s">
+      <c r="I14" s="48" t="s">
         <v>4</v>
       </c>
       <c r="J14" s="59"/>
       <c r="K14" s="59"/>
-      <c r="L14" s="60"/>
-      <c r="M14" s="82" t="s">
+      <c r="L14" s="49"/>
+      <c r="M14" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="N14" s="58" t="s">
+      <c r="N14" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="O14" s="60"/>
-      <c r="P14" s="54" t="s">
+      <c r="O14" s="49"/>
+      <c r="P14" s="77" t="s">
         <v>28</v>
       </c>
-      <c r="Q14" s="54" t="s">
+      <c r="Q14" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="R14" s="70" t="s">
+      <c r="R14" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="S14" s="83" t="s">
+      <c r="S14" s="41" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:19" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="68"/>
-      <c r="B15" s="68"/>
-      <c r="C15" s="61"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="74"/>
-      <c r="G15" s="74"/>
-      <c r="H15" s="71"/>
-      <c r="I15" s="61"/>
-      <c r="J15" s="62"/>
-      <c r="K15" s="62"/>
-      <c r="L15" s="63"/>
-      <c r="M15" s="77"/>
-      <c r="N15" s="61"/>
-      <c r="O15" s="63"/>
-      <c r="P15" s="43"/>
-      <c r="Q15" s="43"/>
-      <c r="R15" s="71"/>
-      <c r="S15" s="84"/>
+      <c r="A15" s="63"/>
+      <c r="B15" s="63"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="72"/>
+      <c r="G15" s="72"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="60"/>
+      <c r="K15" s="60"/>
+      <c r="L15" s="51"/>
+      <c r="M15" s="57"/>
+      <c r="N15" s="50"/>
+      <c r="O15" s="51"/>
+      <c r="P15" s="68"/>
+      <c r="Q15" s="68"/>
+      <c r="R15" s="45"/>
+      <c r="S15" s="42"/>
     </row>
     <row r="16" spans="1:19" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="68"/>
-      <c r="B16" s="68"/>
-      <c r="C16" s="61"/>
-      <c r="D16" s="62"/>
-      <c r="E16" s="63"/>
-      <c r="F16" s="74"/>
-      <c r="G16" s="74"/>
-      <c r="H16" s="71"/>
-      <c r="I16" s="61"/>
-      <c r="J16" s="62"/>
-      <c r="K16" s="62"/>
-      <c r="L16" s="63"/>
-      <c r="M16" s="77"/>
-      <c r="N16" s="61"/>
-      <c r="O16" s="63"/>
-      <c r="P16" s="43"/>
-      <c r="Q16" s="43"/>
-      <c r="R16" s="71"/>
-      <c r="S16" s="84"/>
+      <c r="A16" s="63"/>
+      <c r="B16" s="63"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="72"/>
+      <c r="G16" s="72"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="60"/>
+      <c r="L16" s="51"/>
+      <c r="M16" s="57"/>
+      <c r="N16" s="50"/>
+      <c r="O16" s="51"/>
+      <c r="P16" s="68"/>
+      <c r="Q16" s="68"/>
+      <c r="R16" s="45"/>
+      <c r="S16" s="42"/>
     </row>
     <row r="17" spans="1:19" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="68"/>
-      <c r="B17" s="68"/>
-      <c r="C17" s="61"/>
-      <c r="D17" s="62"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="74"/>
-      <c r="G17" s="74"/>
-      <c r="H17" s="71"/>
-      <c r="I17" s="61"/>
-      <c r="J17" s="62"/>
-      <c r="K17" s="62"/>
-      <c r="L17" s="63"/>
-      <c r="M17" s="77"/>
-      <c r="N17" s="61"/>
-      <c r="O17" s="63"/>
-      <c r="P17" s="43"/>
-      <c r="Q17" s="43"/>
-      <c r="R17" s="71"/>
-      <c r="S17" s="84"/>
+      <c r="A17" s="63"/>
+      <c r="B17" s="63"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="72"/>
+      <c r="G17" s="72"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="60"/>
+      <c r="K17" s="60"/>
+      <c r="L17" s="51"/>
+      <c r="M17" s="57"/>
+      <c r="N17" s="50"/>
+      <c r="O17" s="51"/>
+      <c r="P17" s="68"/>
+      <c r="Q17" s="68"/>
+      <c r="R17" s="45"/>
+      <c r="S17" s="42"/>
     </row>
     <row r="18" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="68"/>
-      <c r="B18" s="68"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="65"/>
-      <c r="E18" s="66"/>
-      <c r="F18" s="74"/>
-      <c r="G18" s="74"/>
-      <c r="H18" s="71"/>
-      <c r="I18" s="64"/>
-      <c r="J18" s="65"/>
-      <c r="K18" s="65"/>
-      <c r="L18" s="66"/>
-      <c r="M18" s="77"/>
-      <c r="N18" s="64"/>
-      <c r="O18" s="66"/>
-      <c r="P18" s="43"/>
-      <c r="Q18" s="43"/>
-      <c r="R18" s="71"/>
-      <c r="S18" s="84"/>
+      <c r="A18" s="63"/>
+      <c r="B18" s="63"/>
+      <c r="C18" s="52"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="72"/>
+      <c r="G18" s="72"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="52"/>
+      <c r="J18" s="61"/>
+      <c r="K18" s="61"/>
+      <c r="L18" s="53"/>
+      <c r="M18" s="57"/>
+      <c r="N18" s="52"/>
+      <c r="O18" s="53"/>
+      <c r="P18" s="68"/>
+      <c r="Q18" s="68"/>
+      <c r="R18" s="45"/>
+      <c r="S18" s="42"/>
     </row>
     <row r="19" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="68"/>
-      <c r="B19" s="68"/>
-      <c r="C19" s="79" t="s">
+      <c r="A19" s="63"/>
+      <c r="B19" s="63"/>
+      <c r="C19" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="42" t="s">
+      <c r="D19" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="E19" s="42" t="s">
+      <c r="E19" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="F19" s="74"/>
-      <c r="G19" s="74"/>
-      <c r="H19" s="71"/>
-      <c r="I19" s="76" t="s">
+      <c r="F19" s="72"/>
+      <c r="G19" s="72"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="J19" s="76" t="s">
+      <c r="J19" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="K19" s="76" t="s">
+      <c r="K19" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="L19" s="42" t="s">
+      <c r="L19" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="M19" s="77"/>
-      <c r="N19" s="42" t="s">
+      <c r="M19" s="57"/>
+      <c r="N19" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="O19" s="42" t="s">
+      <c r="O19" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="P19" s="43"/>
-      <c r="Q19" s="43"/>
-      <c r="R19" s="86"/>
-      <c r="S19" s="84"/>
+      <c r="P19" s="68"/>
+      <c r="Q19" s="68"/>
+      <c r="R19" s="46"/>
+      <c r="S19" s="42"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A20" s="68"/>
-      <c r="B20" s="68"/>
-      <c r="C20" s="80"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="74"/>
-      <c r="G20" s="74"/>
-      <c r="H20" s="71"/>
-      <c r="I20" s="77"/>
-      <c r="J20" s="77"/>
-      <c r="K20" s="77"/>
-      <c r="L20" s="43"/>
-      <c r="M20" s="77"/>
-      <c r="N20" s="43"/>
-      <c r="O20" s="43"/>
-      <c r="P20" s="43"/>
-      <c r="Q20" s="43"/>
-      <c r="R20" s="86"/>
-      <c r="S20" s="84"/>
+      <c r="A20" s="63"/>
+      <c r="B20" s="63"/>
+      <c r="C20" s="75"/>
+      <c r="D20" s="68"/>
+      <c r="E20" s="68"/>
+      <c r="F20" s="72"/>
+      <c r="G20" s="72"/>
+      <c r="H20" s="45"/>
+      <c r="I20" s="57"/>
+      <c r="J20" s="57"/>
+      <c r="K20" s="57"/>
+      <c r="L20" s="68"/>
+      <c r="M20" s="57"/>
+      <c r="N20" s="68"/>
+      <c r="O20" s="68"/>
+      <c r="P20" s="68"/>
+      <c r="Q20" s="68"/>
+      <c r="R20" s="46"/>
+      <c r="S20" s="42"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A21" s="68"/>
-      <c r="B21" s="68"/>
-      <c r="C21" s="80"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="74"/>
-      <c r="G21" s="74"/>
-      <c r="H21" s="71"/>
-      <c r="I21" s="77"/>
-      <c r="J21" s="77"/>
-      <c r="K21" s="77"/>
-      <c r="L21" s="43"/>
-      <c r="M21" s="77"/>
-      <c r="N21" s="43"/>
-      <c r="O21" s="43"/>
-      <c r="P21" s="43"/>
-      <c r="Q21" s="43"/>
-      <c r="R21" s="86"/>
-      <c r="S21" s="84"/>
+      <c r="A21" s="63"/>
+      <c r="B21" s="63"/>
+      <c r="C21" s="75"/>
+      <c r="D21" s="68"/>
+      <c r="E21" s="68"/>
+      <c r="F21" s="72"/>
+      <c r="G21" s="72"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="57"/>
+      <c r="J21" s="57"/>
+      <c r="K21" s="57"/>
+      <c r="L21" s="68"/>
+      <c r="M21" s="57"/>
+      <c r="N21" s="68"/>
+      <c r="O21" s="68"/>
+      <c r="P21" s="68"/>
+      <c r="Q21" s="68"/>
+      <c r="R21" s="46"/>
+      <c r="S21" s="42"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A22" s="68"/>
-      <c r="B22" s="68"/>
-      <c r="C22" s="80"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="74"/>
-      <c r="G22" s="74"/>
-      <c r="H22" s="71"/>
-      <c r="I22" s="77"/>
-      <c r="J22" s="77"/>
-      <c r="K22" s="77"/>
-      <c r="L22" s="43"/>
-      <c r="M22" s="77"/>
-      <c r="N22" s="43"/>
-      <c r="O22" s="43"/>
-      <c r="P22" s="43"/>
-      <c r="Q22" s="43"/>
-      <c r="R22" s="86"/>
-      <c r="S22" s="84"/>
+      <c r="A22" s="63"/>
+      <c r="B22" s="63"/>
+      <c r="C22" s="75"/>
+      <c r="D22" s="68"/>
+      <c r="E22" s="68"/>
+      <c r="F22" s="72"/>
+      <c r="G22" s="72"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="57"/>
+      <c r="J22" s="57"/>
+      <c r="K22" s="57"/>
+      <c r="L22" s="68"/>
+      <c r="M22" s="57"/>
+      <c r="N22" s="68"/>
+      <c r="O22" s="68"/>
+      <c r="P22" s="68"/>
+      <c r="Q22" s="68"/>
+      <c r="R22" s="46"/>
+      <c r="S22" s="42"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A23" s="68"/>
-      <c r="B23" s="68"/>
-      <c r="C23" s="80"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="43"/>
-      <c r="F23" s="74"/>
-      <c r="G23" s="74"/>
-      <c r="H23" s="71"/>
-      <c r="I23" s="77"/>
-      <c r="J23" s="77"/>
-      <c r="K23" s="77"/>
-      <c r="L23" s="43"/>
-      <c r="M23" s="77"/>
-      <c r="N23" s="43"/>
-      <c r="O23" s="43"/>
-      <c r="P23" s="43"/>
-      <c r="Q23" s="43"/>
-      <c r="R23" s="86"/>
-      <c r="S23" s="84"/>
+      <c r="A23" s="63"/>
+      <c r="B23" s="63"/>
+      <c r="C23" s="75"/>
+      <c r="D23" s="68"/>
+      <c r="E23" s="68"/>
+      <c r="F23" s="72"/>
+      <c r="G23" s="72"/>
+      <c r="H23" s="45"/>
+      <c r="I23" s="57"/>
+      <c r="J23" s="57"/>
+      <c r="K23" s="57"/>
+      <c r="L23" s="68"/>
+      <c r="M23" s="57"/>
+      <c r="N23" s="68"/>
+      <c r="O23" s="68"/>
+      <c r="P23" s="68"/>
+      <c r="Q23" s="68"/>
+      <c r="R23" s="46"/>
+      <c r="S23" s="42"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A24" s="68"/>
-      <c r="B24" s="68"/>
-      <c r="C24" s="80"/>
-      <c r="D24" s="43"/>
-      <c r="E24" s="43"/>
-      <c r="F24" s="74"/>
-      <c r="G24" s="74"/>
-      <c r="H24" s="71"/>
-      <c r="I24" s="77"/>
-      <c r="J24" s="77"/>
-      <c r="K24" s="77"/>
-      <c r="L24" s="43"/>
-      <c r="M24" s="77"/>
-      <c r="N24" s="43"/>
-      <c r="O24" s="43"/>
-      <c r="P24" s="43"/>
-      <c r="Q24" s="43"/>
-      <c r="R24" s="86"/>
-      <c r="S24" s="84"/>
+      <c r="A24" s="63"/>
+      <c r="B24" s="63"/>
+      <c r="C24" s="75"/>
+      <c r="D24" s="68"/>
+      <c r="E24" s="68"/>
+      <c r="F24" s="72"/>
+      <c r="G24" s="72"/>
+      <c r="H24" s="45"/>
+      <c r="I24" s="57"/>
+      <c r="J24" s="57"/>
+      <c r="K24" s="57"/>
+      <c r="L24" s="68"/>
+      <c r="M24" s="57"/>
+      <c r="N24" s="68"/>
+      <c r="O24" s="68"/>
+      <c r="P24" s="68"/>
+      <c r="Q24" s="68"/>
+      <c r="R24" s="46"/>
+      <c r="S24" s="42"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A25" s="68"/>
-      <c r="B25" s="68"/>
-      <c r="C25" s="80"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="43"/>
-      <c r="F25" s="74"/>
-      <c r="G25" s="74"/>
-      <c r="H25" s="71"/>
-      <c r="I25" s="77"/>
-      <c r="J25" s="77"/>
-      <c r="K25" s="77"/>
-      <c r="L25" s="43"/>
-      <c r="M25" s="77"/>
-      <c r="N25" s="43"/>
-      <c r="O25" s="43"/>
-      <c r="P25" s="43"/>
-      <c r="Q25" s="43"/>
-      <c r="R25" s="86"/>
-      <c r="S25" s="84"/>
+      <c r="A25" s="63"/>
+      <c r="B25" s="63"/>
+      <c r="C25" s="75"/>
+      <c r="D25" s="68"/>
+      <c r="E25" s="68"/>
+      <c r="F25" s="72"/>
+      <c r="G25" s="72"/>
+      <c r="H25" s="45"/>
+      <c r="I25" s="57"/>
+      <c r="J25" s="57"/>
+      <c r="K25" s="57"/>
+      <c r="L25" s="68"/>
+      <c r="M25" s="57"/>
+      <c r="N25" s="68"/>
+      <c r="O25" s="68"/>
+      <c r="P25" s="68"/>
+      <c r="Q25" s="68"/>
+      <c r="R25" s="46"/>
+      <c r="S25" s="42"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A26" s="68"/>
-      <c r="B26" s="68"/>
-      <c r="C26" s="80"/>
-      <c r="D26" s="43"/>
-      <c r="E26" s="43"/>
-      <c r="F26" s="74"/>
-      <c r="G26" s="74"/>
-      <c r="H26" s="71"/>
-      <c r="I26" s="77"/>
-      <c r="J26" s="77"/>
-      <c r="K26" s="77"/>
-      <c r="L26" s="43"/>
-      <c r="M26" s="77"/>
-      <c r="N26" s="43"/>
-      <c r="O26" s="43"/>
-      <c r="P26" s="43"/>
-      <c r="Q26" s="43"/>
-      <c r="R26" s="86"/>
-      <c r="S26" s="84"/>
+      <c r="A26" s="63"/>
+      <c r="B26" s="63"/>
+      <c r="C26" s="75"/>
+      <c r="D26" s="68"/>
+      <c r="E26" s="68"/>
+      <c r="F26" s="72"/>
+      <c r="G26" s="72"/>
+      <c r="H26" s="45"/>
+      <c r="I26" s="57"/>
+      <c r="J26" s="57"/>
+      <c r="K26" s="57"/>
+      <c r="L26" s="68"/>
+      <c r="M26" s="57"/>
+      <c r="N26" s="68"/>
+      <c r="O26" s="68"/>
+      <c r="P26" s="68"/>
+      <c r="Q26" s="68"/>
+      <c r="R26" s="46"/>
+      <c r="S26" s="42"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A27" s="68"/>
-      <c r="B27" s="68"/>
-      <c r="C27" s="80"/>
-      <c r="D27" s="43"/>
-      <c r="E27" s="43"/>
-      <c r="F27" s="74"/>
-      <c r="G27" s="74"/>
-      <c r="H27" s="71"/>
-      <c r="I27" s="77"/>
-      <c r="J27" s="77"/>
-      <c r="K27" s="77"/>
-      <c r="L27" s="43"/>
-      <c r="M27" s="77"/>
-      <c r="N27" s="43"/>
-      <c r="O27" s="43"/>
-      <c r="P27" s="43"/>
-      <c r="Q27" s="43"/>
-      <c r="R27" s="86"/>
-      <c r="S27" s="84"/>
+      <c r="A27" s="63"/>
+      <c r="B27" s="63"/>
+      <c r="C27" s="75"/>
+      <c r="D27" s="68"/>
+      <c r="E27" s="68"/>
+      <c r="F27" s="72"/>
+      <c r="G27" s="72"/>
+      <c r="H27" s="45"/>
+      <c r="I27" s="57"/>
+      <c r="J27" s="57"/>
+      <c r="K27" s="57"/>
+      <c r="L27" s="68"/>
+      <c r="M27" s="57"/>
+      <c r="N27" s="68"/>
+      <c r="O27" s="68"/>
+      <c r="P27" s="68"/>
+      <c r="Q27" s="68"/>
+      <c r="R27" s="46"/>
+      <c r="S27" s="42"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A28" s="68"/>
-      <c r="B28" s="68"/>
-      <c r="C28" s="80"/>
-      <c r="D28" s="43"/>
-      <c r="E28" s="43"/>
-      <c r="F28" s="74"/>
-      <c r="G28" s="74"/>
-      <c r="H28" s="71"/>
-      <c r="I28" s="77"/>
-      <c r="J28" s="77"/>
-      <c r="K28" s="77"/>
-      <c r="L28" s="43"/>
-      <c r="M28" s="77"/>
-      <c r="N28" s="43"/>
-      <c r="O28" s="43"/>
-      <c r="P28" s="43"/>
-      <c r="Q28" s="43"/>
-      <c r="R28" s="86"/>
-      <c r="S28" s="84"/>
+      <c r="A28" s="63"/>
+      <c r="B28" s="63"/>
+      <c r="C28" s="75"/>
+      <c r="D28" s="68"/>
+      <c r="E28" s="68"/>
+      <c r="F28" s="72"/>
+      <c r="G28" s="72"/>
+      <c r="H28" s="45"/>
+      <c r="I28" s="57"/>
+      <c r="J28" s="57"/>
+      <c r="K28" s="57"/>
+      <c r="L28" s="68"/>
+      <c r="M28" s="57"/>
+      <c r="N28" s="68"/>
+      <c r="O28" s="68"/>
+      <c r="P28" s="68"/>
+      <c r="Q28" s="68"/>
+      <c r="R28" s="46"/>
+      <c r="S28" s="42"/>
     </row>
     <row r="29" spans="1:19" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="69"/>
-      <c r="B29" s="69"/>
-      <c r="C29" s="81"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="75"/>
-      <c r="G29" s="75"/>
-      <c r="H29" s="72"/>
-      <c r="I29" s="78"/>
-      <c r="J29" s="78"/>
-      <c r="K29" s="78"/>
-      <c r="L29" s="44"/>
-      <c r="M29" s="78"/>
-      <c r="N29" s="44"/>
-      <c r="O29" s="44"/>
-      <c r="P29" s="44"/>
-      <c r="Q29" s="44"/>
-      <c r="R29" s="87"/>
-      <c r="S29" s="85"/>
+      <c r="A29" s="64"/>
+      <c r="B29" s="64"/>
+      <c r="C29" s="76"/>
+      <c r="D29" s="69"/>
+      <c r="E29" s="69"/>
+      <c r="F29" s="73"/>
+      <c r="G29" s="73"/>
+      <c r="H29" s="70"/>
+      <c r="I29" s="58"/>
+      <c r="J29" s="58"/>
+      <c r="K29" s="58"/>
+      <c r="L29" s="69"/>
+      <c r="M29" s="58"/>
+      <c r="N29" s="69"/>
+      <c r="O29" s="69"/>
+      <c r="P29" s="69"/>
+      <c r="Q29" s="69"/>
+      <c r="R29" s="47"/>
+      <c r="S29" s="43"/>
     </row>
     <row r="30" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B30" s="26">
@@ -1964,27 +1964,27 @@
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A31" s="88" t="s">
+      <c r="A31" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="B31" s="88"/>
-      <c r="C31" s="88"/>
-      <c r="D31" s="88"/>
-      <c r="E31" s="88"/>
-      <c r="F31" s="88"/>
-      <c r="G31" s="88"/>
-      <c r="H31" s="88"/>
-      <c r="I31" s="88"/>
-      <c r="J31" s="88"/>
-      <c r="K31" s="88"/>
-      <c r="L31" s="88"/>
-      <c r="M31" s="88"/>
-      <c r="N31" s="88"/>
-      <c r="O31" s="88"/>
-      <c r="P31" s="88"/>
-      <c r="Q31" s="88"/>
-      <c r="R31" s="88"/>
-      <c r="S31" s="89"/>
+      <c r="B31" s="54"/>
+      <c r="C31" s="54"/>
+      <c r="D31" s="54"/>
+      <c r="E31" s="54"/>
+      <c r="F31" s="54"/>
+      <c r="G31" s="54"/>
+      <c r="H31" s="54"/>
+      <c r="I31" s="54"/>
+      <c r="J31" s="54"/>
+      <c r="K31" s="54"/>
+      <c r="L31" s="54"/>
+      <c r="M31" s="54"/>
+      <c r="N31" s="54"/>
+      <c r="O31" s="54"/>
+      <c r="P31" s="54"/>
+      <c r="Q31" s="54"/>
+      <c r="R31" s="54"/>
+      <c r="S31" s="55"/>
     </row>
     <row r="32" spans="1:19" s="30" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A32" s="29" t="s">
@@ -2015,28 +2015,28 @@
         <v>51</v>
       </c>
       <c r="J32" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="K32" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="K32" s="38" t="s">
+      <c r="L32" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="M32" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="L32" s="35" t="s">
+      <c r="N32" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="O32" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="M32" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="N32" s="40" t="s">
+      <c r="P32" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="O32" s="40" t="s">
+      <c r="Q32" s="35" t="s">
         <v>55</v>
-      </c>
-      <c r="P32" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q32" s="35" t="s">
-        <v>57</v>
       </c>
       <c r="R32" s="39" t="s">
         <v>42</v>
@@ -2049,26 +2049,6 @@
   <autoFilter ref="A30:S32"/>
   <dataConsolidate/>
   <mergeCells count="36">
-    <mergeCell ref="S14:S29"/>
-    <mergeCell ref="R14:R29"/>
-    <mergeCell ref="N14:O18"/>
-    <mergeCell ref="A31:S31"/>
-    <mergeCell ref="J19:J29"/>
-    <mergeCell ref="I14:L18"/>
-    <mergeCell ref="A14:A29"/>
-    <mergeCell ref="M8:Q8"/>
-    <mergeCell ref="D7:K7"/>
-    <mergeCell ref="E19:E29"/>
-    <mergeCell ref="C14:E18"/>
-    <mergeCell ref="B14:B29"/>
-    <mergeCell ref="H14:H29"/>
-    <mergeCell ref="G14:G29"/>
-    <mergeCell ref="F14:F29"/>
-    <mergeCell ref="I19:I29"/>
-    <mergeCell ref="C19:C29"/>
-    <mergeCell ref="K19:K29"/>
-    <mergeCell ref="Q14:Q29"/>
-    <mergeCell ref="M14:M29"/>
     <mergeCell ref="M1:Q1"/>
     <mergeCell ref="L19:L29"/>
     <mergeCell ref="O19:O29"/>
@@ -2085,6 +2065,26 @@
     <mergeCell ref="A4:Q4"/>
     <mergeCell ref="P14:P29"/>
     <mergeCell ref="C13:K13"/>
+    <mergeCell ref="M8:Q8"/>
+    <mergeCell ref="D7:K7"/>
+    <mergeCell ref="E19:E29"/>
+    <mergeCell ref="C14:E18"/>
+    <mergeCell ref="B14:B29"/>
+    <mergeCell ref="H14:H29"/>
+    <mergeCell ref="G14:G29"/>
+    <mergeCell ref="F14:F29"/>
+    <mergeCell ref="I19:I29"/>
+    <mergeCell ref="C19:C29"/>
+    <mergeCell ref="K19:K29"/>
+    <mergeCell ref="Q14:Q29"/>
+    <mergeCell ref="M14:M29"/>
+    <mergeCell ref="S14:S29"/>
+    <mergeCell ref="R14:R29"/>
+    <mergeCell ref="N14:O18"/>
+    <mergeCell ref="A31:S31"/>
+    <mergeCell ref="J19:J29"/>
+    <mergeCell ref="I14:L18"/>
+    <mergeCell ref="A14:A29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="35" fitToHeight="0" orientation="landscape" horizontalDpi="4294967294" verticalDpi="4294967294" r:id="rId1"/>
@@ -2092,6 +2092,24 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxKeywordTaxHTField xmlns="27a80a21-4aed-40f1-b39d-00aef76d25f1">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </TaxKeywordTaxHTField>
+    <TaxCatchAll xmlns="27a80a21-4aed-40f1-b39d-00aef76d25f1"/>
+    <ja59e83f1efa4988a9d84f1ed80e9e80 xmlns="ba51a3dc-3600-43b4-9e90-084518075544">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ja59e83f1efa4988a9d84f1ed80e9e80>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Документ" ma:contentTypeID="0x0101003220086BDFF08D4697153991C5991007" ma:contentTypeVersion="6" ma:contentTypeDescription="Создание документа." ma:contentTypeScope="" ma:versionID="92861b40dc77cc7dc4f405e799d307eb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ba51a3dc-3600-43b4-9e90-084518075544" xmlns:ns3="27a80a21-4aed-40f1-b39d-00aef76d25f1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="697eb68cc161217d921f9e9932bb7be9" ns2:_="" ns3:_="">
     <xsd:import namespace="ba51a3dc-3600-43b4-9e90-084518075544"/>
@@ -2244,24 +2262,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxKeywordTaxHTField xmlns="27a80a21-4aed-40f1-b39d-00aef76d25f1">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </TaxKeywordTaxHTField>
-    <TaxCatchAll xmlns="27a80a21-4aed-40f1-b39d-00aef76d25f1"/>
-    <ja59e83f1efa4988a9d84f1ed80e9e80 xmlns="ba51a3dc-3600-43b4-9e90-084518075544">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ja59e83f1efa4988a9d84f1ed80e9e80>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-</file>
-
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -2272,20 +2272,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{23265495-F50B-4D0A-B1F7-E2F1BF735843}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91B1181E-E70F-4B46-8612-7A451D6C81B9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="ba51a3dc-3600-43b4-9e90-084518075544"/>
-    <ds:schemaRef ds:uri="27a80a21-4aed-40f1-b39d-00aef76d25f1"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2308,9 +2297,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91B1181E-E70F-4B46-8612-7A451D6C81B9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{23265495-F50B-4D0A-B1F7-E2F1BF735843}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ba51a3dc-3600-43b4-9e90-084518075544"/>
+    <ds:schemaRef ds:uri="27a80a21-4aed-40f1-b39d-00aef76d25f1"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
